--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7002,28 +7002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2744.73806060631</v>
+        <v>2960.486914638826</v>
       </c>
       <c r="AB2" t="n">
-        <v>3755.471703818948</v>
+        <v>4050.668804073935</v>
       </c>
       <c r="AC2" t="n">
-        <v>3397.054755243966</v>
+        <v>3664.078658562339</v>
       </c>
       <c r="AD2" t="n">
-        <v>2744738.06060631</v>
+        <v>2960486.914638826</v>
       </c>
       <c r="AE2" t="n">
-        <v>3755471.703818948</v>
+        <v>4050668.804073935</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.244962218879894e-07</v>
+        <v>9.00313979909946e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.66898148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>3397054.755243966</v>
+        <v>3664078.658562338</v>
       </c>
     </row>
     <row r="3">
@@ -7108,28 +7108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1640.445789420611</v>
+        <v>1795.761068884742</v>
       </c>
       <c r="AB3" t="n">
-        <v>2244.530300445795</v>
+        <v>2457.039517835157</v>
       </c>
       <c r="AC3" t="n">
-        <v>2030.31547878931</v>
+        <v>2222.543114729591</v>
       </c>
       <c r="AD3" t="n">
-        <v>1640445.789420611</v>
+        <v>1795761.068884742</v>
       </c>
       <c r="AE3" t="n">
-        <v>2244530.300445795</v>
+        <v>2457039.517835157</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.80891020917269e-07</v>
+        <v>1.269949237661216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.50231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>2030315.47878931</v>
+        <v>2222543.114729591</v>
       </c>
     </row>
     <row r="4">
@@ -7214,28 +7214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1398.4485200873</v>
+        <v>1536.497063960465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1913.418960377923</v>
+        <v>2102.303068377112</v>
       </c>
       <c r="AC4" t="n">
-        <v>1730.804940299831</v>
+        <v>1901.662214132088</v>
       </c>
       <c r="AD4" t="n">
-        <v>1398448.520087301</v>
+        <v>1536497.063960465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1913418.960377923</v>
+        <v>2102303.068377112</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.80833524512664e-07</v>
+        <v>1.414032788562623e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.98379629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>1730804.940299831</v>
+        <v>1901662.214132088</v>
       </c>
     </row>
     <row r="5">
@@ -7320,28 +7320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1298.088927935378</v>
+        <v>1427.418852667038</v>
       </c>
       <c r="AB5" t="n">
-        <v>1776.102538842938</v>
+        <v>1953.057447494391</v>
       </c>
       <c r="AC5" t="n">
-        <v>1606.593805311337</v>
+        <v>1766.660385838869</v>
       </c>
       <c r="AD5" t="n">
-        <v>1298088.927935378</v>
+        <v>1427418.852667038</v>
       </c>
       <c r="AE5" t="n">
-        <v>1776102.538842938</v>
+        <v>1953057.447494391</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034612359868252e-06</v>
+        <v>1.491563821732902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1606593.805311337</v>
+        <v>1766660.385838869</v>
       </c>
     </row>
     <row r="6">
@@ -7426,28 +7426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1237.028852274044</v>
+        <v>1366.273436151133</v>
       </c>
       <c r="AB6" t="n">
-        <v>1692.557449542681</v>
+        <v>1869.395591071936</v>
       </c>
       <c r="AC6" t="n">
-        <v>1531.022142077626</v>
+        <v>1690.98309957322</v>
       </c>
       <c r="AD6" t="n">
-        <v>1237028.852274044</v>
+        <v>1366273.436151133</v>
       </c>
       <c r="AE6" t="n">
-        <v>1692557.449542681</v>
+        <v>1869395.591071936</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.067751466420378e-06</v>
+        <v>1.539339292368103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.46643518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1531022.142077626</v>
+        <v>1690983.09957322</v>
       </c>
     </row>
     <row r="7">
@@ -7532,28 +7532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1189.204124505072</v>
+        <v>1318.533959728181</v>
       </c>
       <c r="AB7" t="n">
-        <v>1627.12154713109</v>
+        <v>1804.076333312995</v>
       </c>
       <c r="AC7" t="n">
-        <v>1471.831350352333</v>
+        <v>1631.897820098639</v>
       </c>
       <c r="AD7" t="n">
-        <v>1189204.124505072</v>
+        <v>1318533.959728181</v>
       </c>
       <c r="AE7" t="n">
-        <v>1627121.54713109</v>
+        <v>1804076.333312995</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.0926977035238e-06</v>
+        <v>1.575303394668769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1471831.350352333</v>
+        <v>1631897.820098639</v>
       </c>
     </row>
     <row r="8">
@@ -7638,28 +7638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1166.570785907593</v>
+        <v>1287.267342843769</v>
       </c>
       <c r="AB8" t="n">
-        <v>1596.153614749592</v>
+        <v>1761.295968705959</v>
       </c>
       <c r="AC8" t="n">
-        <v>1443.818953973559</v>
+        <v>1593.200353447079</v>
       </c>
       <c r="AD8" t="n">
-        <v>1166570.785907593</v>
+        <v>1287267.34284377</v>
       </c>
       <c r="AE8" t="n">
-        <v>1596153.614749592</v>
+        <v>1761295.968705959</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.107402853816344e-06</v>
+        <v>1.596503286551267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1443818.953973559</v>
+        <v>1593200.353447079</v>
       </c>
     </row>
     <row r="9">
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1146.057299589441</v>
+        <v>1266.753856525618</v>
       </c>
       <c r="AB9" t="n">
-        <v>1568.086157777952</v>
+        <v>1733.228511734319</v>
       </c>
       <c r="AC9" t="n">
-        <v>1418.430215702369</v>
+        <v>1567.811615175889</v>
       </c>
       <c r="AD9" t="n">
-        <v>1146057.299589441</v>
+        <v>1266753.856525618</v>
       </c>
       <c r="AE9" t="n">
-        <v>1568086.157777952</v>
+        <v>1733228.511734319</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.120374897110123e-06</v>
+        <v>1.615204619747614e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.12384259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>1418430.215702369</v>
+        <v>1567811.615175889</v>
       </c>
     </row>
     <row r="10">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1120.772180137469</v>
+        <v>1241.553988419666</v>
       </c>
       <c r="AB10" t="n">
-        <v>1533.489941843021</v>
+        <v>1698.748940452037</v>
       </c>
       <c r="AC10" t="n">
-        <v>1387.135814060174</v>
+        <v>1536.622725784406</v>
       </c>
       <c r="AD10" t="n">
-        <v>1120772.180137469</v>
+        <v>1241553.988419666</v>
       </c>
       <c r="AE10" t="n">
-        <v>1533489.941843021</v>
+        <v>1698748.940452037</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.130353391951492e-06</v>
+        <v>1.62959026066788e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.88657407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1387135.814060174</v>
+        <v>1536622.725784406</v>
       </c>
     </row>
     <row r="11">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1106.613552088013</v>
+        <v>1227.39536037021</v>
       </c>
       <c r="AB11" t="n">
-        <v>1514.117482311171</v>
+        <v>1679.376480920186</v>
       </c>
       <c r="AC11" t="n">
-        <v>1369.612234876625</v>
+        <v>1519.099146600857</v>
       </c>
       <c r="AD11" t="n">
-        <v>1106613.552088013</v>
+        <v>1227395.36037021</v>
       </c>
       <c r="AE11" t="n">
-        <v>1514117.482311171</v>
+        <v>1679376.480920186</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.138598779794097e-06</v>
+        <v>1.641477342901996e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.68981481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>1369612.234876625</v>
+        <v>1519099.146600857</v>
       </c>
     </row>
     <row r="12">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1095.429141514924</v>
+        <v>1216.210949797121</v>
       </c>
       <c r="AB12" t="n">
-        <v>1498.8144783437</v>
+        <v>1664.073476952715</v>
       </c>
       <c r="AC12" t="n">
-        <v>1355.769728129908</v>
+        <v>1505.256639854141</v>
       </c>
       <c r="AD12" t="n">
-        <v>1095429.141514924</v>
+        <v>1216210.949797121</v>
       </c>
       <c r="AE12" t="n">
-        <v>1498814.4783437</v>
+        <v>1664073.476952715</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.145058542244036e-06</v>
+        <v>1.650790152550379e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.54513888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1355769.728129908</v>
+        <v>1505256.639854141</v>
       </c>
     </row>
     <row r="13">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1081.145784985999</v>
+        <v>1193.294314981264</v>
       </c>
       <c r="AB13" t="n">
-        <v>1479.271359803608</v>
+        <v>1632.717926187085</v>
       </c>
       <c r="AC13" t="n">
-        <v>1338.091777394344</v>
+        <v>1476.893618845791</v>
       </c>
       <c r="AD13" t="n">
-        <v>1081145.784985999</v>
+        <v>1193294.314981264</v>
       </c>
       <c r="AE13" t="n">
-        <v>1479271.359803608</v>
+        <v>1632717.926187085</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.152411117390308e-06</v>
+        <v>1.661390098491628e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.37152777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1338091.777394344</v>
+        <v>1476893.618845791</v>
       </c>
     </row>
     <row r="14">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1073.465034715563</v>
+        <v>1185.613564710828</v>
       </c>
       <c r="AB14" t="n">
-        <v>1468.76221843281</v>
+        <v>1622.208784816288</v>
       </c>
       <c r="AC14" t="n">
-        <v>1328.585613726302</v>
+        <v>1467.387455177749</v>
       </c>
       <c r="AD14" t="n">
-        <v>1073465.034715563</v>
+        <v>1185613.564710828</v>
       </c>
       <c r="AE14" t="n">
-        <v>1468762.21843281</v>
+        <v>1622208.784816288</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.155772294600032e-06</v>
+        <v>1.66623578806477e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.29629629629629</v>
       </c>
       <c r="AH14" t="n">
-        <v>1328585.613726303</v>
+        <v>1467387.45517775</v>
       </c>
     </row>
     <row r="15">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1062.964593801797</v>
+        <v>1175.113123797062</v>
       </c>
       <c r="AB15" t="n">
-        <v>1454.395051927836</v>
+        <v>1607.841618311314</v>
       </c>
       <c r="AC15" t="n">
-        <v>1315.589629428119</v>
+        <v>1454.391470879566</v>
       </c>
       <c r="AD15" t="n">
-        <v>1062964.593801797</v>
+        <v>1175113.123797062</v>
       </c>
       <c r="AE15" t="n">
-        <v>1454395.051927836</v>
+        <v>1607841.618311314</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.160446431657305e-06</v>
+        <v>1.672974325127421e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.19212962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1315589.629428119</v>
+        <v>1454391.470879565</v>
       </c>
     </row>
     <row r="16">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1054.352507458858</v>
+        <v>1166.501037454123</v>
       </c>
       <c r="AB16" t="n">
-        <v>1442.611615454993</v>
+        <v>1596.05818183847</v>
       </c>
       <c r="AC16" t="n">
-        <v>1304.930787594086</v>
+        <v>1443.732629045533</v>
       </c>
       <c r="AD16" t="n">
-        <v>1054352.507458858</v>
+        <v>1166501.037454123</v>
       </c>
       <c r="AE16" t="n">
-        <v>1442611.615454993</v>
+        <v>1596058.18183847</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.163807608867029e-06</v>
+        <v>1.677820014700564e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.11689814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>1304930.787594086</v>
+        <v>1443732.629045533</v>
       </c>
     </row>
     <row r="17">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1044.271479374714</v>
+        <v>1156.420009369979</v>
       </c>
       <c r="AB17" t="n">
-        <v>1428.818308086696</v>
+        <v>1582.264874470174</v>
       </c>
       <c r="AC17" t="n">
-        <v>1292.453894121991</v>
+        <v>1431.255735573438</v>
       </c>
       <c r="AD17" t="n">
-        <v>1044271.479374714</v>
+        <v>1156420.009369979</v>
       </c>
       <c r="AE17" t="n">
-        <v>1428818.308086696</v>
+        <v>1582264.874470174</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.167799006803577e-06</v>
+        <v>1.68357427106867e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.02430555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>1292453.894121991</v>
+        <v>1431255.735573438</v>
       </c>
     </row>
     <row r="18">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1030.822875333159</v>
+        <v>1151.519342760785</v>
       </c>
       <c r="AB18" t="n">
-        <v>1410.417334726505</v>
+        <v>1575.559566213323</v>
       </c>
       <c r="AC18" t="n">
-        <v>1275.809083833368</v>
+        <v>1425.190372525662</v>
       </c>
       <c r="AD18" t="n">
-        <v>1030822.875333159</v>
+        <v>1151519.342760785</v>
       </c>
       <c r="AE18" t="n">
-        <v>1410417.334726505</v>
+        <v>1575559.566213323</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.169427077014537e-06</v>
+        <v>1.685921401955661e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1275809.083833368</v>
+        <v>1425190.372525662</v>
       </c>
     </row>
     <row r="19">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1022.107536842872</v>
+        <v>1142.804004270498</v>
       </c>
       <c r="AB19" t="n">
-        <v>1398.492624110496</v>
+        <v>1563.634855597314</v>
       </c>
       <c r="AC19" t="n">
-        <v>1265.022450862115</v>
+        <v>1414.403739554409</v>
       </c>
       <c r="AD19" t="n">
-        <v>1022107.536842872</v>
+        <v>1142804.004270498</v>
       </c>
       <c r="AE19" t="n">
-        <v>1398492.624110496</v>
+        <v>1563634.855597314</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.171265220801105e-06</v>
+        <v>1.688571388440973e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.94907407407408</v>
       </c>
       <c r="AH19" t="n">
-        <v>1265022.450862115</v>
+        <v>1414403.739554409</v>
       </c>
     </row>
     <row r="20">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1015.261698732504</v>
+        <v>1135.95816616013</v>
       </c>
       <c r="AB20" t="n">
-        <v>1389.125846390828</v>
+        <v>1554.268077877646</v>
       </c>
       <c r="AC20" t="n">
-        <v>1256.549625261657</v>
+        <v>1405.930913953951</v>
       </c>
       <c r="AD20" t="n">
-        <v>1015261.698732504</v>
+        <v>1135958.16616013</v>
       </c>
       <c r="AE20" t="n">
-        <v>1389125.846390828</v>
+        <v>1554268.077877646</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.174941508374241e-06</v>
+        <v>1.693871361411598e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.86805555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>1256549.625261657</v>
+        <v>1405930.913953951</v>
       </c>
     </row>
     <row r="21">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1009.164362331203</v>
+        <v>1129.860829758829</v>
       </c>
       <c r="AB21" t="n">
-        <v>1380.783201731071</v>
+        <v>1545.925433217889</v>
       </c>
       <c r="AC21" t="n">
-        <v>1249.003190899252</v>
+        <v>1398.384479591546</v>
       </c>
       <c r="AD21" t="n">
-        <v>1009164.362331203</v>
+        <v>1129860.829758829</v>
       </c>
       <c r="AE21" t="n">
-        <v>1380783.201731071</v>
+        <v>1545925.433217889</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.176201949827887e-06</v>
+        <v>1.695688495001526e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.83912037037037</v>
       </c>
       <c r="AH21" t="n">
-        <v>1249003.190899252</v>
+        <v>1398384.479591546</v>
       </c>
     </row>
     <row r="22">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1002.358386460109</v>
+        <v>1123.054853887734</v>
       </c>
       <c r="AB22" t="n">
-        <v>1371.470965285775</v>
+        <v>1536.613196772593</v>
       </c>
       <c r="AC22" t="n">
-        <v>1240.579701230489</v>
+        <v>1389.960989922783</v>
       </c>
       <c r="AD22" t="n">
-        <v>1002358.386460109</v>
+        <v>1123054.853887734</v>
       </c>
       <c r="AE22" t="n">
-        <v>1371470.965285775</v>
+        <v>1536613.196772593</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.177830020038847e-06</v>
+        <v>1.698035625888517e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.80439814814815</v>
       </c>
       <c r="AH22" t="n">
-        <v>1240579.701230489</v>
+        <v>1389960.989922783</v>
       </c>
     </row>
     <row r="23">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>992.0084580432758</v>
+        <v>1112.704925470901</v>
       </c>
       <c r="AB23" t="n">
-        <v>1357.309736619248</v>
+        <v>1522.451968106066</v>
       </c>
       <c r="AC23" t="n">
-        <v>1227.770000352486</v>
+        <v>1377.15128904478</v>
       </c>
       <c r="AD23" t="n">
-        <v>992008.4580432759</v>
+        <v>1112704.925470901</v>
       </c>
       <c r="AE23" t="n">
-        <v>1357309.736619248</v>
+        <v>1522451.968106066</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.180403421340042e-06</v>
+        <v>1.701745606967954e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.74652777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>1227770.000352487</v>
+        <v>1377151.28904478</v>
       </c>
     </row>
     <row r="24">
@@ -9334,28 +9334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>986.207018801093</v>
+        <v>1098.440800142378</v>
       </c>
       <c r="AB24" t="n">
-        <v>1349.371951506658</v>
+        <v>1502.935162542785</v>
       </c>
       <c r="AC24" t="n">
-        <v>1220.58978631029</v>
+        <v>1359.49714001245</v>
       </c>
       <c r="AD24" t="n">
-        <v>986207.018801093</v>
+        <v>1098440.800142378</v>
       </c>
       <c r="AE24" t="n">
-        <v>1349371.951506658</v>
+        <v>1502935.162542785</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.181821417975395e-06</v>
+        <v>1.703789882256624e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.71759259259259</v>
       </c>
       <c r="AH24" t="n">
-        <v>1220589.78631029</v>
+        <v>1359497.14001245</v>
       </c>
     </row>
     <row r="25">
@@ -9440,28 +9440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>981.5215458759069</v>
+        <v>1093.755327217192</v>
       </c>
       <c r="AB25" t="n">
-        <v>1342.961080741941</v>
+        <v>1496.524291778068</v>
       </c>
       <c r="AC25" t="n">
-        <v>1214.790760053645</v>
+        <v>1353.698113755804</v>
       </c>
       <c r="AD25" t="n">
-        <v>981521.5458759069</v>
+        <v>1093755.327217192</v>
       </c>
       <c r="AE25" t="n">
-        <v>1342961.080741941</v>
+        <v>1496524.291778068</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.181558826005885e-06</v>
+        <v>1.703411312758722e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.72337962962963</v>
       </c>
       <c r="AH25" t="n">
-        <v>1214790.760053645</v>
+        <v>1353698.113755804</v>
       </c>
     </row>
     <row r="26">
@@ -9546,28 +9546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>978.9968719893859</v>
+        <v>1091.230653330671</v>
       </c>
       <c r="AB26" t="n">
-        <v>1339.506710549653</v>
+        <v>1493.069921585779</v>
       </c>
       <c r="AC26" t="n">
-        <v>1211.666070104269</v>
+        <v>1350.573423806428</v>
       </c>
       <c r="AD26" t="n">
-        <v>978996.8719893859</v>
+        <v>1091230.653330671</v>
       </c>
       <c r="AE26" t="n">
-        <v>1339506.710549653</v>
+        <v>1493069.921585779</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.183764598549767e-06</v>
+        <v>1.706591296541097e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.67129629629629</v>
       </c>
       <c r="AH26" t="n">
-        <v>1211666.070104269</v>
+        <v>1350573.423806428</v>
       </c>
     </row>
     <row r="27">
@@ -9652,28 +9652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>978.8362396771338</v>
+        <v>1091.070021018419</v>
       </c>
       <c r="AB27" t="n">
-        <v>1339.286926333432</v>
+        <v>1492.850137369558</v>
       </c>
       <c r="AC27" t="n">
-        <v>1211.467261785175</v>
+        <v>1350.374615487334</v>
       </c>
       <c r="AD27" t="n">
-        <v>978836.2396771337</v>
+        <v>1091070.021018419</v>
       </c>
       <c r="AE27" t="n">
-        <v>1339286.926333432</v>
+        <v>1492850.137369558</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.182976822641238e-06</v>
+        <v>1.705455588047392e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.68865740740741</v>
       </c>
       <c r="AH27" t="n">
-        <v>1211467.261785175</v>
+        <v>1350374.615487334</v>
       </c>
     </row>
     <row r="28">
@@ -9758,28 +9758,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>981.666747702937</v>
+        <v>1093.900529044222</v>
       </c>
       <c r="AB28" t="n">
-        <v>1343.159752287537</v>
+        <v>1496.722963323663</v>
       </c>
       <c r="AC28" t="n">
-        <v>1214.970470665766</v>
+        <v>1353.877824367925</v>
       </c>
       <c r="AD28" t="n">
-        <v>981666.747702937</v>
+        <v>1093900.529044222</v>
       </c>
       <c r="AE28" t="n">
-        <v>1343159.752287537</v>
+        <v>1496722.963323663</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>1.705379874147811e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="AH28" t="n">
-        <v>1214970.470665765</v>
+        <v>1353877.824367925</v>
       </c>
     </row>
     <row r="29">
@@ -9864,28 +9864,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>985.0062948809084</v>
+        <v>1097.240076222194</v>
       </c>
       <c r="AB29" t="n">
-        <v>1347.72906806686</v>
+        <v>1501.292279102987</v>
       </c>
       <c r="AC29" t="n">
-        <v>1219.103697360186</v>
+        <v>1358.011051062345</v>
       </c>
       <c r="AD29" t="n">
-        <v>985006.2948809084</v>
+        <v>1097240.076222194</v>
       </c>
       <c r="AE29" t="n">
-        <v>1347729.06806686</v>
+        <v>1501292.279102987</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>1.705379874147811e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="AH29" t="n">
-        <v>1219103.697360186</v>
+        <v>1358011.051062345</v>
       </c>
     </row>
   </sheetData>
@@ -10161,28 +10161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2072.042799246986</v>
+        <v>2257.140776602483</v>
       </c>
       <c r="AB2" t="n">
-        <v>2835.060370006488</v>
+        <v>3088.319588570894</v>
       </c>
       <c r="AC2" t="n">
-        <v>2564.486187325288</v>
+        <v>2793.574701521336</v>
       </c>
       <c r="AD2" t="n">
-        <v>2072042.799246986</v>
+        <v>2257140.776602483</v>
       </c>
       <c r="AE2" t="n">
-        <v>2835060.370006488</v>
+        <v>3088319.588570894</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.378495332054116e-07</v>
+        <v>1.080183959485912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.6099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2564486.187325289</v>
+        <v>2793574.701521337</v>
       </c>
     </row>
     <row r="3">
@@ -10267,28 +10267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1362.176704730756</v>
+        <v>1496.770230264784</v>
       </c>
       <c r="AB3" t="n">
-        <v>1863.790262407541</v>
+        <v>2047.947061890472</v>
       </c>
       <c r="AC3" t="n">
-        <v>1685.912735609427</v>
+        <v>1852.493868615399</v>
       </c>
       <c r="AD3" t="n">
-        <v>1362176.704730756</v>
+        <v>1496770.230264784</v>
       </c>
       <c r="AE3" t="n">
-        <v>1863790.262407541</v>
+        <v>2047947.061890472</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.749979915252422e-07</v>
+        <v>1.427360381189469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1685912.735609427</v>
+        <v>1852493.868615399</v>
       </c>
     </row>
     <row r="4">
@@ -10373,28 +10373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1191.746411297692</v>
+        <v>1318.007764622737</v>
       </c>
       <c r="AB4" t="n">
-        <v>1630.60001607853</v>
+        <v>1803.356369955637</v>
       </c>
       <c r="AC4" t="n">
-        <v>1474.977839105491</v>
+        <v>1631.246569033632</v>
       </c>
       <c r="AD4" t="n">
-        <v>1191746.411297692</v>
+        <v>1318007.764622737</v>
       </c>
       <c r="AE4" t="n">
-        <v>1630600.01607853</v>
+        <v>1803356.369955637</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064261431850439e-06</v>
+        <v>1.558038699828402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.54282407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>1474977.839105491</v>
+        <v>1631246.569033632</v>
       </c>
     </row>
     <row r="5">
@@ -10479,28 +10479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1116.020453422386</v>
+        <v>1233.779131846408</v>
       </c>
       <c r="AB5" t="n">
-        <v>1526.988419720058</v>
+        <v>1688.111038686041</v>
       </c>
       <c r="AC5" t="n">
-        <v>1381.254788083682</v>
+        <v>1527.000090432568</v>
       </c>
       <c r="AD5" t="n">
-        <v>1116020.453422386</v>
+        <v>1233779.131846408</v>
       </c>
       <c r="AE5" t="n">
-        <v>1526988.419720058</v>
+        <v>1688111.038686041</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.111473805339541e-06</v>
+        <v>1.627155838536395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.28703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1381254.788083682</v>
+        <v>1527000.090432568</v>
       </c>
     </row>
     <row r="6">
@@ -10585,28 +10585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1068.532939336083</v>
+        <v>1186.376869106125</v>
       </c>
       <c r="AB6" t="n">
-        <v>1462.013907945914</v>
+        <v>1623.253171564547</v>
       </c>
       <c r="AC6" t="n">
-        <v>1322.481352520962</v>
+        <v>1468.332167120561</v>
       </c>
       <c r="AD6" t="n">
-        <v>1068532.939336083</v>
+        <v>1186376.869106125</v>
       </c>
       <c r="AE6" t="n">
-        <v>1462013.907945914</v>
+        <v>1623253.171564547</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139616508984369e-06</v>
+        <v>1.668355697973381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.58680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1322481.352520962</v>
+        <v>1468332.167120561</v>
       </c>
     </row>
     <row r="7">
@@ -10691,28 +10691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1039.591664874483</v>
+        <v>1157.265002443933</v>
       </c>
       <c r="AB7" t="n">
-        <v>1422.415179428636</v>
+        <v>1583.421031272421</v>
       </c>
       <c r="AC7" t="n">
-        <v>1286.661871076209</v>
+        <v>1432.301550393156</v>
       </c>
       <c r="AD7" t="n">
-        <v>1039591.664874483</v>
+        <v>1157265.002443933</v>
       </c>
       <c r="AE7" t="n">
-        <v>1422415.179428636</v>
+        <v>1583421.031272422</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.160479053771268e-06</v>
+        <v>1.698897678714313e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.09490740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>1286661.871076209</v>
+        <v>1432301.550393156</v>
       </c>
     </row>
     <row r="8">
@@ -10797,28 +10797,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1010.802701991654</v>
+        <v>1128.561290907124</v>
       </c>
       <c r="AB8" t="n">
-        <v>1383.024850332944</v>
+        <v>1544.147346829379</v>
       </c>
       <c r="AC8" t="n">
-        <v>1251.030899704735</v>
+        <v>1396.776091272395</v>
       </c>
       <c r="AD8" t="n">
-        <v>1010802.701991654</v>
+        <v>1128561.290907125</v>
       </c>
       <c r="AE8" t="n">
-        <v>1383024.850332944</v>
+        <v>1544147.346829379</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.173844121525375e-06</v>
+        <v>1.718463635126472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.78240740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1251030.899704735</v>
+        <v>1396776.091272395</v>
       </c>
     </row>
     <row r="9">
@@ -10903,28 +10903,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>992.7752010432771</v>
+        <v>1110.533789958748</v>
       </c>
       <c r="AB9" t="n">
-        <v>1358.358828218164</v>
+        <v>1519.481324714599</v>
       </c>
       <c r="AC9" t="n">
-        <v>1228.71896812161</v>
+        <v>1374.46415968927</v>
       </c>
       <c r="AD9" t="n">
-        <v>992775.201043277</v>
+        <v>1110533.789958748</v>
       </c>
       <c r="AE9" t="n">
-        <v>1358358.828218164</v>
+        <v>1519481.324714599</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184764359812268e-06</v>
+        <v>1.734450453170553e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.53935185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>1228718.968121611</v>
+        <v>1374464.15968927</v>
       </c>
     </row>
     <row r="10">
@@ -11009,28 +11009,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>978.0338933570388</v>
+        <v>1087.375148226057</v>
       </c>
       <c r="AB10" t="n">
-        <v>1338.189120701256</v>
+        <v>1487.794649408766</v>
       </c>
       <c r="AC10" t="n">
-        <v>1210.474229181754</v>
+        <v>1345.801616202098</v>
       </c>
       <c r="AD10" t="n">
-        <v>978033.8933570387</v>
+        <v>1087375.148226057</v>
       </c>
       <c r="AE10" t="n">
-        <v>1338189.120701256</v>
+        <v>1487794.649408766</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.193239768631946e-06</v>
+        <v>1.746858132846557e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.34837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1210474.229181754</v>
+        <v>1345801.616202098</v>
       </c>
     </row>
     <row r="11">
@@ -11115,28 +11115,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>962.3222948035511</v>
+        <v>1071.66354967257</v>
       </c>
       <c r="AB11" t="n">
-        <v>1316.691818413566</v>
+        <v>1466.297347121076</v>
       </c>
       <c r="AC11" t="n">
-        <v>1191.028599252748</v>
+        <v>1326.355986273092</v>
       </c>
       <c r="AD11" t="n">
-        <v>962322.2948035512</v>
+        <v>1071663.54967257</v>
       </c>
       <c r="AE11" t="n">
-        <v>1316691.818413566</v>
+        <v>1466297.347121076</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.20122621155818e-06</v>
+        <v>1.758549984848944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.17476851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>1191028.599252748</v>
+        <v>1326355.986273092</v>
       </c>
     </row>
     <row r="12">
@@ -11221,28 +11221,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>953.668093784024</v>
+        <v>1063.009348653043</v>
       </c>
       <c r="AB12" t="n">
-        <v>1304.850758782246</v>
+        <v>1454.456287489756</v>
       </c>
       <c r="AC12" t="n">
-        <v>1180.31763373361</v>
+        <v>1315.645020753953</v>
       </c>
       <c r="AD12" t="n">
-        <v>953668.093784024</v>
+        <v>1063009.348653043</v>
       </c>
       <c r="AE12" t="n">
-        <v>1304850.758782246</v>
+        <v>1454456.287489756</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.205789893230315e-06</v>
+        <v>1.765231043136023e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.07638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1180317.63373361</v>
+        <v>1315645.020753953</v>
       </c>
     </row>
     <row r="13">
@@ -11327,28 +11327,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>932.9805891638864</v>
+        <v>1050.653837224785</v>
       </c>
       <c r="AB13" t="n">
-        <v>1276.545202292683</v>
+        <v>1437.55093166692</v>
       </c>
       <c r="AC13" t="n">
-        <v>1154.713519828312</v>
+        <v>1300.353088364033</v>
       </c>
       <c r="AD13" t="n">
-        <v>932980.5891638864</v>
+        <v>1050653.837224785</v>
       </c>
       <c r="AE13" t="n">
-        <v>1276545.202292683</v>
+        <v>1437550.93166692</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211059858970755e-06</v>
+        <v>1.772946074729436e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.96064814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>1154713.519828312</v>
+        <v>1300353.088364033</v>
       </c>
     </row>
     <row r="14">
@@ -11433,28 +11433,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>918.9002316631032</v>
+        <v>1036.573479724002</v>
       </c>
       <c r="AB14" t="n">
-        <v>1257.279835978579</v>
+        <v>1418.285565352817</v>
       </c>
       <c r="AC14" t="n">
-        <v>1137.286813036115</v>
+        <v>1282.926381571836</v>
       </c>
       <c r="AD14" t="n">
-        <v>918900.2316631032</v>
+        <v>1036573.479724002</v>
       </c>
       <c r="AE14" t="n">
-        <v>1257279.835978579</v>
+        <v>1418285.565352817</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.216221165623764e-06</v>
+        <v>1.780502033506489e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.85069444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1137286.813036115</v>
+        <v>1282926.381571836</v>
       </c>
     </row>
     <row r="15">
@@ -11539,28 +11539,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>910.2353230487633</v>
+        <v>1027.908571109662</v>
       </c>
       <c r="AB15" t="n">
-        <v>1245.42412574365</v>
+        <v>1406.429855117888</v>
       </c>
       <c r="AC15" t="n">
-        <v>1126.562595146414</v>
+        <v>1272.202163682135</v>
       </c>
       <c r="AD15" t="n">
-        <v>910235.3230487633</v>
+        <v>1027908.571109662</v>
       </c>
       <c r="AE15" t="n">
-        <v>1245424.12574365</v>
+        <v>1406429.855117888</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.218665995090979e-06</v>
+        <v>1.784081171874567e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.79861111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1126562.595146414</v>
+        <v>1272202.163682135</v>
       </c>
     </row>
     <row r="16">
@@ -11645,28 +11645,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>899.2584980216856</v>
+        <v>1016.931746082584</v>
       </c>
       <c r="AB16" t="n">
-        <v>1230.40514947826</v>
+        <v>1391.410878852497</v>
       </c>
       <c r="AC16" t="n">
-        <v>1112.977008896527</v>
+        <v>1258.616577432248</v>
       </c>
       <c r="AD16" t="n">
-        <v>899258.4980216855</v>
+        <v>1016931.746082584</v>
       </c>
       <c r="AE16" t="n">
-        <v>1230405.14947826</v>
+        <v>1391410.878852498</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.220839176839614e-06</v>
+        <v>1.787262628201747e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.75231481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>1112977.008896527</v>
+        <v>1258616.577432248</v>
       </c>
     </row>
     <row r="17">
@@ -11751,28 +11751,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>890.8039538073697</v>
+        <v>1000.230460022409</v>
       </c>
       <c r="AB17" t="n">
-        <v>1218.837269096066</v>
+        <v>1368.559442456226</v>
       </c>
       <c r="AC17" t="n">
-        <v>1102.513150782388</v>
+        <v>1237.946050053444</v>
       </c>
       <c r="AD17" t="n">
-        <v>890803.9538073697</v>
+        <v>1000230.460022409</v>
       </c>
       <c r="AE17" t="n">
-        <v>1218837.269096066</v>
+        <v>1368559.442456226</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.224424926724863e-06</v>
+        <v>1.792512031141595e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1102513.150782388</v>
+        <v>1237946.050053444</v>
       </c>
     </row>
     <row r="18">
@@ -11857,28 +11857,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>883.6057257385939</v>
+        <v>993.0322319536334</v>
       </c>
       <c r="AB18" t="n">
-        <v>1208.988335888958</v>
+        <v>1358.710509249117</v>
       </c>
       <c r="AC18" t="n">
-        <v>1093.604185937502</v>
+        <v>1229.037085208557</v>
       </c>
       <c r="AD18" t="n">
-        <v>883605.725738594</v>
+        <v>993032.2319536334</v>
       </c>
       <c r="AE18" t="n">
-        <v>1208988.335888958</v>
+        <v>1358710.509249117</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.225294199424317e-06</v>
+        <v>1.793784613672467e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.65972222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1093604.185937501</v>
+        <v>1229037.085208557</v>
       </c>
     </row>
     <row r="19">
@@ -11963,28 +11963,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>879.0903150837051</v>
+        <v>988.5168212987443</v>
       </c>
       <c r="AB19" t="n">
-        <v>1202.81015182508</v>
+        <v>1352.532325185239</v>
       </c>
       <c r="AC19" t="n">
-        <v>1088.015639089544</v>
+        <v>1223.4485383606</v>
       </c>
       <c r="AD19" t="n">
-        <v>879090.3150837051</v>
+        <v>988516.8212987443</v>
       </c>
       <c r="AE19" t="n">
-        <v>1202810.15182508</v>
+        <v>1352532.325185239</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.226815426648362e-06</v>
+        <v>1.796011633101494e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.63078703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>1088015.639089544</v>
+        <v>1223448.5383606</v>
       </c>
     </row>
     <row r="20">
@@ -12069,28 +12069,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>882.9320347290092</v>
+        <v>992.3585409440484</v>
       </c>
       <c r="AB20" t="n">
-        <v>1208.066562128494</v>
+        <v>1357.788735488653</v>
       </c>
       <c r="AC20" t="n">
-        <v>1092.770384971019</v>
+        <v>1228.203284242074</v>
       </c>
       <c r="AD20" t="n">
-        <v>882932.0347290091</v>
+        <v>992358.5409440484</v>
       </c>
       <c r="AE20" t="n">
-        <v>1208066.562128494</v>
+        <v>1357788.735488653</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226543778929782e-06</v>
+        <v>1.795613951060596e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.63078703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1092770.384971019</v>
+        <v>1228203.284242074</v>
       </c>
     </row>
   </sheetData>
@@ -12366,28 +12366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.8116834608163</v>
+        <v>1117.684910233751</v>
       </c>
       <c r="AB2" t="n">
-        <v>1348.831036253127</v>
+        <v>1529.265802960018</v>
       </c>
       <c r="AC2" t="n">
-        <v>1220.100495249377</v>
+        <v>1383.314821063548</v>
       </c>
       <c r="AD2" t="n">
-        <v>985811.6834608163</v>
+        <v>1117684.91023375</v>
       </c>
       <c r="AE2" t="n">
-        <v>1348831.036253127</v>
+        <v>1529265.802960018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097109925406149e-06</v>
+        <v>1.697364474079565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1220100.495249377</v>
+        <v>1383314.821063548</v>
       </c>
     </row>
     <row r="3">
@@ -12472,28 +12472,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>786.9851367772234</v>
+        <v>903.3237860816778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1076.787783472465</v>
+        <v>1235.967455949793</v>
       </c>
       <c r="AC3" t="n">
-        <v>974.020668698998</v>
+        <v>1118.008456645163</v>
       </c>
       <c r="AD3" t="n">
-        <v>786985.1367772233</v>
+        <v>903323.7860816778</v>
       </c>
       <c r="AE3" t="n">
-        <v>1076787.783472465</v>
+        <v>1235967.455949793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258187511293542e-06</v>
+        <v>1.94657138172334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.88194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>974020.6686989979</v>
+        <v>1118008.456645163</v>
       </c>
     </row>
     <row r="4">
@@ -12578,28 +12578,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>723.95778002335</v>
+        <v>832.6144814481365</v>
       </c>
       <c r="AB4" t="n">
-        <v>990.5509733910782</v>
+        <v>1139.219865875823</v>
       </c>
       <c r="AC4" t="n">
-        <v>896.0141787376557</v>
+        <v>1030.494320781757</v>
       </c>
       <c r="AD4" t="n">
-        <v>723957.78002335</v>
+        <v>832614.4814481365</v>
       </c>
       <c r="AE4" t="n">
-        <v>990550.9733910782</v>
+        <v>1139219.865875822</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.313900835128887e-06</v>
+        <v>2.03276677055459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.70138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>896014.1787376557</v>
+        <v>1030494.320781757</v>
       </c>
     </row>
     <row r="5">
@@ -12684,28 +12684,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>688.7266728086232</v>
+        <v>789.6161750077207</v>
       </c>
       <c r="AB5" t="n">
-        <v>942.3462182131346</v>
+        <v>1080.387686052646</v>
       </c>
       <c r="AC5" t="n">
-        <v>852.4100177380961</v>
+        <v>977.2770016294215</v>
       </c>
       <c r="AD5" t="n">
-        <v>688726.6728086232</v>
+        <v>789616.1750077207</v>
       </c>
       <c r="AE5" t="n">
-        <v>942346.2182131347</v>
+        <v>1080387.686052646</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343182157666942e-06</v>
+        <v>2.078068590799958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.11689814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>852410.0177380962</v>
+        <v>977277.0016294215</v>
       </c>
     </row>
     <row r="6">
@@ -12790,28 +12790,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>656.8579806565144</v>
+        <v>765.429341226729</v>
       </c>
       <c r="AB6" t="n">
-        <v>898.7420676631482</v>
+        <v>1047.294193025695</v>
       </c>
       <c r="AC6" t="n">
-        <v>812.967386117791</v>
+        <v>947.3419051299536</v>
       </c>
       <c r="AD6" t="n">
-        <v>656857.9806565144</v>
+        <v>765429.341226729</v>
       </c>
       <c r="AE6" t="n">
-        <v>898742.0676631482</v>
+        <v>1047294.193025695</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358277497857367e-06</v>
+        <v>2.10142294533639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.8275462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>812967.3861177909</v>
+        <v>947341.9051299536</v>
       </c>
     </row>
     <row r="7">
@@ -12896,28 +12896,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>657.6123266022943</v>
+        <v>766.1836871725088</v>
       </c>
       <c r="AB7" t="n">
-        <v>899.7741970655587</v>
+        <v>1048.326322428106</v>
       </c>
       <c r="AC7" t="n">
-        <v>813.901010538638</v>
+        <v>948.2755295508008</v>
       </c>
       <c r="AD7" t="n">
-        <v>657612.3266022942</v>
+        <v>766183.6871725088</v>
       </c>
       <c r="AE7" t="n">
-        <v>899774.1970655588</v>
+        <v>1048326.322428106</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360520580536266e-06</v>
+        <v>2.10489327111088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.78703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>813901.0105386381</v>
+        <v>948275.5295508008</v>
       </c>
     </row>
   </sheetData>
@@ -13193,28 +13193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1307.799603220764</v>
+        <v>1452.015390231574</v>
       </c>
       <c r="AB2" t="n">
-        <v>1789.389113173161</v>
+        <v>1986.711515312842</v>
       </c>
       <c r="AC2" t="n">
-        <v>1618.612327635307</v>
+        <v>1797.102556658509</v>
       </c>
       <c r="AD2" t="n">
-        <v>1307799.603220764</v>
+        <v>1452015.390231574</v>
       </c>
       <c r="AE2" t="n">
-        <v>1789389.113173161</v>
+        <v>1986711.515312842</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550352729837293e-07</v>
+        <v>1.443339047707214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.14467592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1618612.327635307</v>
+        <v>1797102.556658508</v>
       </c>
     </row>
     <row r="3">
@@ -13299,28 +13299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>981.5381341001364</v>
+        <v>1101.689524575713</v>
       </c>
       <c r="AB3" t="n">
-        <v>1342.983777482153</v>
+        <v>1507.380210636079</v>
       </c>
       <c r="AC3" t="n">
-        <v>1214.811290648826</v>
+        <v>1363.517958954385</v>
       </c>
       <c r="AD3" t="n">
-        <v>981538.1341001363</v>
+        <v>1101689.524575713</v>
       </c>
       <c r="AE3" t="n">
-        <v>1342983.777482153</v>
+        <v>1507380.210636079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146947079524275e-06</v>
+        <v>1.733374203404255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.26504629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>1214811.290648826</v>
+        <v>1363517.958954385</v>
       </c>
     </row>
     <row r="4">
@@ -13405,28 +13405,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>888.7221052335186</v>
+        <v>1001.022622397943</v>
       </c>
       <c r="AB4" t="n">
-        <v>1215.988792032647</v>
+        <v>1369.643313966169</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.936528372039</v>
+        <v>1238.926478387701</v>
       </c>
       <c r="AD4" t="n">
-        <v>888722.1052335186</v>
+        <v>1001022.622397943</v>
       </c>
       <c r="AE4" t="n">
-        <v>1215988.792032647</v>
+        <v>1369643.313966169</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.214571487631339e-06</v>
+        <v>1.835574563495747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.63310185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1099936.528372039</v>
+        <v>1238926.478387701</v>
       </c>
     </row>
     <row r="5">
@@ -13511,28 +13511,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>838.0992213361081</v>
+        <v>950.3143976459608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1146.724328960192</v>
+        <v>1300.262083771516</v>
       </c>
       <c r="AC5" t="n">
-        <v>1037.282568441935</v>
+        <v>1176.166895425658</v>
       </c>
       <c r="AD5" t="n">
-        <v>838099.2213361082</v>
+        <v>950314.3976459608</v>
       </c>
       <c r="AE5" t="n">
-        <v>1146724.328960192</v>
+        <v>1300262.083771516</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251515525336485e-06</v>
+        <v>1.891407864849333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.81712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1037282.568441935</v>
+        <v>1176166.895425658</v>
       </c>
     </row>
     <row r="6">
@@ -13617,28 +13617,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>810.0824294486806</v>
+        <v>914.2762297553395</v>
       </c>
       <c r="AB6" t="n">
-        <v>1108.390518286189</v>
+        <v>1250.95307257181</v>
       </c>
       <c r="AC6" t="n">
-        <v>1002.607282856817</v>
+        <v>1131.56386704922</v>
       </c>
       <c r="AD6" t="n">
-        <v>810082.4294486806</v>
+        <v>914276.2297553394</v>
       </c>
       <c r="AE6" t="n">
-        <v>1108390.518286189</v>
+        <v>1250953.07257181</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.272568407105665e-06</v>
+        <v>1.923224958085364e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.37731481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>1002607.282856817</v>
+        <v>1131563.86704922</v>
       </c>
     </row>
     <row r="7">
@@ -13723,28 +13723,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>788.9352469723704</v>
+        <v>893.1290472790294</v>
       </c>
       <c r="AB7" t="n">
-        <v>1079.456010274255</v>
+        <v>1222.018564559876</v>
       </c>
       <c r="AC7" t="n">
-        <v>976.4342436797049</v>
+        <v>1105.390827872108</v>
       </c>
       <c r="AD7" t="n">
-        <v>788935.2469723703</v>
+        <v>893129.0472790294</v>
       </c>
       <c r="AE7" t="n">
-        <v>1079456.010274255</v>
+        <v>1222018.564559876</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.287125633893721e-06</v>
+        <v>1.945225207127357e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.07638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>976434.2436797048</v>
+        <v>1105390.827872108</v>
       </c>
     </row>
     <row r="8">
@@ -13829,28 +13829,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>758.0611048475608</v>
+        <v>870.1909403028416</v>
       </c>
       <c r="AB8" t="n">
-        <v>1037.21264694807</v>
+        <v>1190.633634637197</v>
       </c>
       <c r="AC8" t="n">
-        <v>938.2225276604383</v>
+        <v>1077.001231612223</v>
       </c>
       <c r="AD8" t="n">
-        <v>758061.1048475609</v>
+        <v>870190.9403028416</v>
       </c>
       <c r="AE8" t="n">
-        <v>1037212.64694807</v>
+        <v>1190633.634637197</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.29878301470806e-06</v>
+        <v>1.96284293643987e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>938222.5276604383</v>
+        <v>1077001.231612223</v>
       </c>
     </row>
     <row r="9">
@@ -13935,28 +13935,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>743.5019618036627</v>
+        <v>847.7810134563422</v>
       </c>
       <c r="AB9" t="n">
-        <v>1017.292185131349</v>
+        <v>1159.971384069619</v>
       </c>
       <c r="AC9" t="n">
-        <v>920.2032467609614</v>
+        <v>1049.265343204077</v>
       </c>
       <c r="AD9" t="n">
-        <v>743501.9618036627</v>
+        <v>847781.0134563422</v>
       </c>
       <c r="AE9" t="n">
-        <v>1017292.185131349</v>
+        <v>1159971.384069619</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305626651206031e-06</v>
+        <v>1.973185683001445e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.70601851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>920203.2467609614</v>
+        <v>1049265.343204077</v>
       </c>
     </row>
     <row r="10">
@@ -14041,28 +14041,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>737.410474135868</v>
+        <v>841.6895257885474</v>
       </c>
       <c r="AB10" t="n">
-        <v>1008.957542966803</v>
+        <v>1151.636741905073</v>
       </c>
       <c r="AC10" t="n">
-        <v>912.6640511468557</v>
+        <v>1041.726147589971</v>
       </c>
       <c r="AD10" t="n">
-        <v>737410.4741358679</v>
+        <v>841689.5257885474</v>
       </c>
       <c r="AE10" t="n">
-        <v>1008957.542966803</v>
+        <v>1151636.741905073</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.308120518743427e-06</v>
+        <v>1.976954649968799e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.65972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>912664.0511468557</v>
+        <v>1041726.147589971</v>
       </c>
     </row>
     <row r="11">
@@ -14147,28 +14147,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>740.7795883243056</v>
+        <v>845.0586399769852</v>
       </c>
       <c r="AB11" t="n">
-        <v>1013.567313634251</v>
+        <v>1156.246512572521</v>
       </c>
       <c r="AC11" t="n">
-        <v>916.8338717716565</v>
+        <v>1045.895968214772</v>
       </c>
       <c r="AD11" t="n">
-        <v>740779.5883243056</v>
+        <v>845058.6399769852</v>
       </c>
       <c r="AE11" t="n">
-        <v>1013567.313634251</v>
+        <v>1156246.512572521</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.308062521823953e-06</v>
+        <v>1.976866999574209e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.65972222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>916833.8717716566</v>
+        <v>1045895.968214772</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.4607220783928</v>
+        <v>904.231026563508</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.965523795322</v>
+        <v>1237.208782401658</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.6586387173575</v>
+        <v>1119.131312642675</v>
       </c>
       <c r="AD2" t="n">
-        <v>783460.7220783927</v>
+        <v>904231.026563508</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071965.523795322</v>
+        <v>1237208.782401658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215437282739165e-06</v>
+        <v>1.920984028383811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.97685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>969658.6387173574</v>
+        <v>1119131.312642675</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.2830629077974</v>
+        <v>751.0210849732021</v>
       </c>
       <c r="AB3" t="n">
-        <v>882.9047545500225</v>
+        <v>1027.580181172215</v>
       </c>
       <c r="AC3" t="n">
-        <v>798.6415639403734</v>
+        <v>929.5093708989804</v>
       </c>
       <c r="AD3" t="n">
-        <v>645283.0629077974</v>
+        <v>751021.0849732021</v>
       </c>
       <c r="AE3" t="n">
-        <v>882904.7545500225</v>
+        <v>1027580.181172215</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352507680818484e-06</v>
+        <v>2.137622146379644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9386574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>798641.5639403735</v>
+        <v>929509.3708989804</v>
       </c>
     </row>
     <row r="4">
@@ -14656,28 +14656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.578035498802</v>
+        <v>701.7573354356164</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.8420961530791</v>
+        <v>960.1753456916491</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.0248855728901</v>
+        <v>868.5375583133991</v>
       </c>
       <c r="AD4" t="n">
-        <v>603578.035498802</v>
+        <v>701757.3354356163</v>
       </c>
       <c r="AE4" t="n">
-        <v>825842.0961530791</v>
+        <v>960175.3456916491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394944726434222e-06</v>
+        <v>2.204693387320935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.12268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>747024.8855728901</v>
+        <v>868537.5583133991</v>
       </c>
     </row>
     <row r="5">
@@ -14762,28 +14762,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>602.5156133669369</v>
+        <v>700.6949133037513</v>
       </c>
       <c r="AB5" t="n">
-        <v>824.3884433215047</v>
+        <v>958.721692860075</v>
       </c>
       <c r="AC5" t="n">
-        <v>745.7099673273468</v>
+        <v>867.2226400678558</v>
       </c>
       <c r="AD5" t="n">
-        <v>602515.6133669369</v>
+        <v>700694.9133037513</v>
       </c>
       <c r="AE5" t="n">
-        <v>824388.4433215047</v>
+        <v>958721.692860075</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398281764145845e-06</v>
+        <v>2.209967535347476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.05902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>745709.9673273468</v>
+        <v>867222.6400678557</v>
       </c>
     </row>
   </sheetData>
@@ -15059,28 +15059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2216.963876194395</v>
+        <v>2411.699395491379</v>
       </c>
       <c r="AB2" t="n">
-        <v>3033.347780952794</v>
+        <v>3299.793509579723</v>
       </c>
       <c r="AC2" t="n">
-        <v>2743.849326068894</v>
+        <v>2984.865848314587</v>
       </c>
       <c r="AD2" t="n">
-        <v>2216963.876194395</v>
+        <v>2411699.395491379</v>
       </c>
       <c r="AE2" t="n">
-        <v>3033347.780952794</v>
+        <v>3299793.509579723</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.085542100481202e-07</v>
+        <v>1.032991467777535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.97569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2743849.326068894</v>
+        <v>2984865.848314587</v>
       </c>
     </row>
     <row r="3">
@@ -15165,28 +15165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.245484906932</v>
+        <v>1568.221249143846</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.715505725909</v>
+        <v>2145.709498117287</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.732832898817</v>
+        <v>1940.925995139168</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424245.484906932</v>
+        <v>1568221.249143846</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948715.505725909</v>
+        <v>2145709.498117287</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.506794594847764e-07</v>
+        <v>1.385982549129782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.77777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762732.832898817</v>
+        <v>1940925.995139168</v>
       </c>
     </row>
     <row r="4">
@@ -15271,28 +15271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1239.52970725833</v>
+        <v>1374.945947988232</v>
       </c>
       <c r="AB4" t="n">
-        <v>1695.979229662115</v>
+        <v>1881.261704371674</v>
       </c>
       <c r="AC4" t="n">
-        <v>1534.117352304961</v>
+        <v>1701.716727673826</v>
       </c>
       <c r="AD4" t="n">
-        <v>1239529.70725833</v>
+        <v>1374945.947988232</v>
       </c>
       <c r="AE4" t="n">
-        <v>1695979.229662115</v>
+        <v>1881261.704371674</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043017641113388e-06</v>
+        <v>1.520601118068876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.87268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>1534117.352304961</v>
+        <v>1701716.727673826</v>
       </c>
     </row>
     <row r="5">
@@ -15377,28 +15377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1159.284055438928</v>
+        <v>1286.311454370961</v>
       </c>
       <c r="AB5" t="n">
-        <v>1586.183588654505</v>
+        <v>1759.98807992664</v>
       </c>
       <c r="AC5" t="n">
-        <v>1434.800453175967</v>
+        <v>1592.017287737225</v>
       </c>
       <c r="AD5" t="n">
-        <v>1159284.055438928</v>
+        <v>1286311.454370961</v>
       </c>
       <c r="AE5" t="n">
-        <v>1586183.588654505</v>
+        <v>1759988.07992664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.090775056334716e-06</v>
+        <v>1.590225998913759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.56481481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>1434800.453175967</v>
+        <v>1592017.287737225</v>
       </c>
     </row>
     <row r="6">
@@ -15483,28 +15483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1107.716700688726</v>
+        <v>1234.658758766188</v>
       </c>
       <c r="AB6" t="n">
-        <v>1515.626858894149</v>
+        <v>1689.314583044086</v>
       </c>
       <c r="AC6" t="n">
-        <v>1370.977558676947</v>
+        <v>1528.088770206266</v>
       </c>
       <c r="AD6" t="n">
-        <v>1107716.700688727</v>
+        <v>1234658.758766188</v>
       </c>
       <c r="AE6" t="n">
-        <v>1515626.858894149</v>
+        <v>1689314.583044086</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.120764774799519e-06</v>
+        <v>1.633947598271821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.80092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1370977.558676947</v>
+        <v>1528088.770206266</v>
       </c>
     </row>
     <row r="7">
@@ -15589,28 +15589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1078.328356017046</v>
+        <v>1196.796320950619</v>
       </c>
       <c r="AB7" t="n">
-        <v>1475.416429192093</v>
+        <v>1637.509525251956</v>
       </c>
       <c r="AC7" t="n">
-        <v>1334.604755949963</v>
+        <v>1481.227914420962</v>
       </c>
       <c r="AD7" t="n">
-        <v>1078328.356017046</v>
+        <v>1196796.320950618</v>
       </c>
       <c r="AE7" t="n">
-        <v>1475416.429192093</v>
+        <v>1637509.525251956</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.141601437359444e-06</v>
+        <v>1.664325082924549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1334604.755949963</v>
+        <v>1481227.914420962</v>
       </c>
     </row>
     <row r="8">
@@ -15695,28 +15695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1047.778974273399</v>
+        <v>1166.332190552992</v>
       </c>
       <c r="AB8" t="n">
-        <v>1433.617417346832</v>
+        <v>1595.827158059344</v>
       </c>
       <c r="AC8" t="n">
-        <v>1296.794983129932</v>
+        <v>1443.523653851643</v>
       </c>
       <c r="AD8" t="n">
-        <v>1047778.974273399</v>
+        <v>1166332.190552993</v>
       </c>
       <c r="AE8" t="n">
-        <v>1433617.417346832</v>
+        <v>1595827.158059344</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.15667705884983e-06</v>
+        <v>1.686303624792156e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.9386574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1296794.983129932</v>
+        <v>1443523.653851643</v>
       </c>
     </row>
     <row r="9">
@@ -15801,28 +15801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1029.105502099459</v>
+        <v>1147.658718379052</v>
       </c>
       <c r="AB9" t="n">
-        <v>1408.067548902997</v>
+        <v>1570.277289615509</v>
       </c>
       <c r="AC9" t="n">
-        <v>1273.683558270911</v>
+        <v>1420.412228992622</v>
       </c>
       <c r="AD9" t="n">
-        <v>1029105.502099459</v>
+        <v>1147658.718379052</v>
       </c>
       <c r="AE9" t="n">
-        <v>1408067.548902997</v>
+        <v>1570277.289615509</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.168145299483588e-06</v>
+        <v>1.703023015570015e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.67245370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>1273683.558270911</v>
+        <v>1420412.228992622</v>
       </c>
     </row>
     <row r="10">
@@ -15907,28 +15907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1013.197780961567</v>
+        <v>1131.580405040567</v>
       </c>
       <c r="AB10" t="n">
-        <v>1386.301903043006</v>
+        <v>1548.278231980671</v>
       </c>
       <c r="AC10" t="n">
-        <v>1253.995195103521</v>
+        <v>1400.512730542581</v>
       </c>
       <c r="AD10" t="n">
-        <v>1013197.780961567</v>
+        <v>1131580.405040568</v>
       </c>
       <c r="AE10" t="n">
-        <v>1386301.903043006</v>
+        <v>1548278.231980671</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.177298355388465e-06</v>
+        <v>1.716367130275347e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.46412037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1253995.195103521</v>
+        <v>1400512.730542582</v>
       </c>
     </row>
     <row r="11">
@@ -16013,28 +16013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1001.288359739869</v>
+        <v>1111.367482875572</v>
       </c>
       <c r="AB11" t="n">
-        <v>1370.006907520896</v>
+        <v>1520.622020143334</v>
       </c>
       <c r="AC11" t="n">
-        <v>1239.255371083872</v>
+        <v>1375.495988747263</v>
       </c>
       <c r="AD11" t="n">
-        <v>1001288.359739869</v>
+        <v>1111367.482875573</v>
       </c>
       <c r="AE11" t="n">
-        <v>1370006.907520896</v>
+        <v>1520622.020143334</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.184190068069784e-06</v>
+        <v>1.726414463700539e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.31365740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1239255.371083872</v>
+        <v>1375495.988747263</v>
       </c>
     </row>
     <row r="12">
@@ -16119,28 +16119,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>991.5042552220076</v>
+        <v>1101.583378357711</v>
       </c>
       <c r="AB12" t="n">
-        <v>1356.61986407533</v>
+        <v>1507.234976697769</v>
       </c>
       <c r="AC12" t="n">
-        <v>1227.145968275918</v>
+        <v>1363.386585939309</v>
       </c>
       <c r="AD12" t="n">
-        <v>991504.2552220076</v>
+        <v>1101583.378357711</v>
       </c>
       <c r="AE12" t="n">
-        <v>1356619.864075331</v>
+        <v>1507234.976697769</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.188766596022222e-06</v>
+        <v>1.733086521053206e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.20949074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>1227145.968275918</v>
+        <v>1363386.585939309</v>
       </c>
     </row>
     <row r="13">
@@ -16225,28 +16225,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>975.8710029609331</v>
+        <v>1085.950126096637</v>
       </c>
       <c r="AB13" t="n">
-        <v>1335.229758641315</v>
+        <v>1485.844871263753</v>
       </c>
       <c r="AC13" t="n">
-        <v>1207.797304483323</v>
+        <v>1344.037922146714</v>
       </c>
       <c r="AD13" t="n">
-        <v>975871.0029609331</v>
+        <v>1085950.126096637</v>
       </c>
       <c r="AE13" t="n">
-        <v>1335229.758641315</v>
+        <v>1485844.871263753</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196196723756769e-06</v>
+        <v>1.74391880240224e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.04745370370371</v>
       </c>
       <c r="AH13" t="n">
-        <v>1207797.304483323</v>
+        <v>1344037.922146715</v>
       </c>
     </row>
     <row r="14">
@@ -16331,28 +16331,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>958.9195797392503</v>
+        <v>1077.387455164271</v>
       </c>
       <c r="AB14" t="n">
-        <v>1312.036073545396</v>
+        <v>1474.12904713571</v>
       </c>
       <c r="AC14" t="n">
-        <v>1186.817192140417</v>
+        <v>1333.440239830189</v>
       </c>
       <c r="AD14" t="n">
-        <v>958919.5797392502</v>
+        <v>1077387.455164271</v>
       </c>
       <c r="AE14" t="n">
-        <v>1312036.073545396</v>
+        <v>1474129.04713571</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.199211848054847e-06</v>
+        <v>1.748314510775762e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH14" t="n">
-        <v>1186817.192140417</v>
+        <v>1333440.239830189</v>
       </c>
     </row>
     <row r="15">
@@ -16437,28 +16437,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>949.4662850805774</v>
+        <v>1067.934160505599</v>
       </c>
       <c r="AB15" t="n">
-        <v>1299.101658743473</v>
+        <v>1461.194632333788</v>
       </c>
       <c r="AC15" t="n">
-        <v>1175.117219733625</v>
+        <v>1321.740267423397</v>
       </c>
       <c r="AD15" t="n">
-        <v>949466.2850805775</v>
+        <v>1067934.160505599</v>
       </c>
       <c r="AE15" t="n">
-        <v>1299101.658743473</v>
+        <v>1461194.632333788</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.202173130847601e-06</v>
+        <v>1.752631724356899e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.92013888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1175117.219733625</v>
+        <v>1321740.267423397</v>
       </c>
     </row>
     <row r="16">
@@ -16543,28 +16543,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>939.3139824507541</v>
+        <v>1057.781857875776</v>
       </c>
       <c r="AB16" t="n">
-        <v>1285.210830397367</v>
+        <v>1447.303803987682</v>
       </c>
       <c r="AC16" t="n">
-        <v>1162.552112548971</v>
+        <v>1309.175160238744</v>
       </c>
       <c r="AD16" t="n">
-        <v>939313.9824507541</v>
+        <v>1057781.857875776</v>
       </c>
       <c r="AE16" t="n">
-        <v>1285210.830397367</v>
+        <v>1447303.803987682</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.205511304177615e-06</v>
+        <v>1.757498401484727e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>1162552.112548971</v>
+        <v>1309175.160238744</v>
       </c>
     </row>
     <row r="17">
@@ -16649,28 +16649,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>928.3005678518089</v>
+        <v>1046.76844327683</v>
       </c>
       <c r="AB17" t="n">
-        <v>1270.14179066553</v>
+        <v>1432.234764255844</v>
       </c>
       <c r="AC17" t="n">
-        <v>1148.92124081961</v>
+        <v>1295.544288509383</v>
       </c>
       <c r="AD17" t="n">
-        <v>928300.5678518089</v>
+        <v>1046768.44327683</v>
       </c>
       <c r="AE17" t="n">
-        <v>1270141.79066553</v>
+        <v>1432234.764255844</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.209549417076825e-06</v>
+        <v>1.76338551091355e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.75810185185185</v>
       </c>
       <c r="AH17" t="n">
-        <v>1148921.24081961</v>
+        <v>1295544.288509383</v>
       </c>
     </row>
     <row r="18">
@@ -16755,28 +16755,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>917.1481221327857</v>
+        <v>1027.31249661451</v>
       </c>
       <c r="AB18" t="n">
-        <v>1254.882522421582</v>
+        <v>1405.614279696669</v>
       </c>
       <c r="AC18" t="n">
-        <v>1135.118295720347</v>
+        <v>1271.46442563445</v>
       </c>
       <c r="AD18" t="n">
-        <v>917148.1221327857</v>
+        <v>1027312.49661451</v>
       </c>
       <c r="AE18" t="n">
-        <v>1254882.522421582</v>
+        <v>1405614.279696669</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.2113800282578e-06</v>
+        <v>1.766054333854616e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.72337962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>1135118.295720347</v>
+        <v>1271464.425634451</v>
       </c>
     </row>
     <row r="19">
@@ -16861,28 +16861,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>907.4605959718544</v>
+        <v>1017.624970453579</v>
       </c>
       <c r="AB19" t="n">
-        <v>1241.627621744704</v>
+        <v>1392.359379019792</v>
       </c>
       <c r="AC19" t="n">
-        <v>1123.128424160701</v>
+        <v>1259.474554074804</v>
       </c>
       <c r="AD19" t="n">
-        <v>907460.5959718544</v>
+        <v>1017624.970453579</v>
       </c>
       <c r="AE19" t="n">
-        <v>1241627.621744704</v>
+        <v>1392359.379019792</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.214287469545232e-06</v>
+        <v>1.770293052643369e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.65972222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>1123128.424160701</v>
+        <v>1259474.554074804</v>
       </c>
     </row>
     <row r="20">
@@ -16967,28 +16967,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>904.4665189372009</v>
+        <v>1014.630893418925</v>
       </c>
       <c r="AB20" t="n">
-        <v>1237.530993456535</v>
+        <v>1388.262750731623</v>
       </c>
       <c r="AC20" t="n">
-        <v>1119.422772326701</v>
+        <v>1255.768902240804</v>
       </c>
       <c r="AD20" t="n">
-        <v>904466.5189372009</v>
+        <v>1014630.893418925</v>
       </c>
       <c r="AE20" t="n">
-        <v>1237530.993456535</v>
+        <v>1388262.750731623</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214233628039909e-06</v>
+        <v>1.770214557850985e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.65972222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>1119422.772326701</v>
+        <v>1255768.902240804</v>
       </c>
     </row>
     <row r="21">
@@ -17073,28 +17073,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>902.1590670687798</v>
+        <v>1012.323441550504</v>
       </c>
       <c r="AB21" t="n">
-        <v>1234.373836012569</v>
+        <v>1385.105593287657</v>
       </c>
       <c r="AC21" t="n">
-        <v>1116.566929558089</v>
+        <v>1252.913059472192</v>
       </c>
       <c r="AD21" t="n">
-        <v>902159.0670687798</v>
+        <v>1012323.441550504</v>
       </c>
       <c r="AE21" t="n">
-        <v>1234373.836012569</v>
+        <v>1385105.593287657</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.215956556210239e-06</v>
+        <v>1.772726391207283e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1116566.929558089</v>
+        <v>1252913.059472192</v>
       </c>
     </row>
     <row r="22">
@@ -17179,28 +17179,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>905.5302069614281</v>
+        <v>1015.694581443152</v>
       </c>
       <c r="AB22" t="n">
-        <v>1238.986378337886</v>
+        <v>1389.718135612974</v>
       </c>
       <c r="AC22" t="n">
-        <v>1120.739257317621</v>
+        <v>1257.085387231725</v>
       </c>
       <c r="AD22" t="n">
-        <v>905530.2069614282</v>
+        <v>1015694.581443152</v>
       </c>
       <c r="AE22" t="n">
-        <v>1238986.378337886</v>
+        <v>1389718.135612974</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.215848873199593e-06</v>
+        <v>1.772569401622514e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH22" t="n">
-        <v>1120739.257317621</v>
+        <v>1257085.387231725</v>
       </c>
     </row>
   </sheetData>
@@ -17476,28 +17476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.0250785143415</v>
+        <v>787.4701673754267</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.9673365449058</v>
+        <v>1077.451423734966</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.6897521448698</v>
+        <v>974.6209720662714</v>
       </c>
       <c r="AD2" t="n">
-        <v>676025.0785143415</v>
+        <v>787470.1673754267</v>
       </c>
       <c r="AE2" t="n">
-        <v>924967.3365449058</v>
+        <v>1077451.423734966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290185285959734e-06</v>
+        <v>2.067179889635319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.90046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>836689.7521448698</v>
+        <v>974620.9720662714</v>
       </c>
     </row>
     <row r="3">
@@ -17582,28 +17582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.7512849585781</v>
+        <v>673.5904196380275</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.5588437330346</v>
+        <v>921.6361288607642</v>
       </c>
       <c r="AC3" t="n">
-        <v>705.158841804862</v>
+        <v>833.6764702467232</v>
       </c>
       <c r="AD3" t="n">
-        <v>569751.2849585782</v>
+        <v>673590.4196380274</v>
       </c>
       <c r="AE3" t="n">
-        <v>779558.8437330346</v>
+        <v>921636.1288607642</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408874857789022e-06</v>
+        <v>2.257348463610661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.46990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>705158.841804862</v>
+        <v>833676.4702467232</v>
       </c>
     </row>
     <row r="4">
@@ -17688,28 +17688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.8111125093028</v>
+        <v>661.3855669168515</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.7994818429092</v>
+        <v>904.9369109275505</v>
       </c>
       <c r="AC4" t="n">
-        <v>699.0445839267063</v>
+        <v>818.5710022355556</v>
       </c>
       <c r="AD4" t="n">
-        <v>564811.1125093028</v>
+        <v>661385.5669168516</v>
       </c>
       <c r="AE4" t="n">
-        <v>772799.4818429092</v>
+        <v>904936.9109275504</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.416993688435325e-06</v>
+        <v>2.270356737400505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.31365740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>699044.5839267063</v>
+        <v>818571.0022355557</v>
       </c>
     </row>
   </sheetData>
@@ -17985,28 +17985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1656.113518404439</v>
+        <v>1820.692433989326</v>
       </c>
       <c r="AB2" t="n">
-        <v>2265.967578452888</v>
+        <v>2491.15171146545</v>
       </c>
       <c r="AC2" t="n">
-        <v>2049.706813070815</v>
+        <v>2253.399688476573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1656113.518404439</v>
+        <v>1820692.433989326</v>
       </c>
       <c r="AE2" t="n">
-        <v>2265967.578452888</v>
+        <v>2491151.71146545</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.385804296455705e-07</v>
+        <v>1.245160446205135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.62847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2049706.813070815</v>
+        <v>2253399.688476573</v>
       </c>
     </row>
     <row r="3">
@@ -18091,28 +18091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1163.675898343827</v>
+        <v>1295.321962640822</v>
       </c>
       <c r="AB3" t="n">
-        <v>1592.192701871422</v>
+        <v>1772.316654857032</v>
       </c>
       <c r="AC3" t="n">
-        <v>1440.236065061305</v>
+        <v>1603.169240779524</v>
       </c>
       <c r="AD3" t="n">
-        <v>1163675.898343827</v>
+        <v>1295321.962640821</v>
       </c>
       <c r="AE3" t="n">
-        <v>1592192.701871422</v>
+        <v>1772316.654857032</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055656386268327e-06</v>
+        <v>1.567484203656808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.68865740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1440236.065061305</v>
+        <v>1603169.240779524</v>
       </c>
     </row>
     <row r="4">
@@ -18197,28 +18197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1039.113330310955</v>
+        <v>1162.526181785977</v>
       </c>
       <c r="AB4" t="n">
-        <v>1421.760700976185</v>
+        <v>1590.619608955057</v>
       </c>
       <c r="AC4" t="n">
-        <v>1286.069855128694</v>
+        <v>1438.813105925028</v>
       </c>
       <c r="AD4" t="n">
-        <v>1039113.330310955</v>
+        <v>1162526.181785977</v>
       </c>
       <c r="AE4" t="n">
-        <v>1421760.700976185</v>
+        <v>1590619.608955057</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.135478540508671e-06</v>
+        <v>1.686007586360802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.53009259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>1286069.855128694</v>
+        <v>1438813.105925028</v>
       </c>
     </row>
     <row r="5">
@@ -18303,28 +18303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>980.2088456583994</v>
+        <v>1095.47382516602</v>
       </c>
       <c r="AB5" t="n">
-        <v>1341.164986392101</v>
+        <v>1498.875616486433</v>
       </c>
       <c r="AC5" t="n">
-        <v>1213.166082427719</v>
+        <v>1355.825031334108</v>
       </c>
       <c r="AD5" t="n">
-        <v>980208.8456583994</v>
+        <v>1095473.82516602</v>
       </c>
       <c r="AE5" t="n">
-        <v>1341164.986392101</v>
+        <v>1498875.616486433</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175669498955071e-06</v>
+        <v>1.745684857596052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1213166.082427719</v>
+        <v>1355825.031334108</v>
       </c>
     </row>
     <row r="6">
@@ -18409,28 +18409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>939.68971638321</v>
+        <v>1054.869355036259</v>
       </c>
       <c r="AB6" t="n">
-        <v>1285.724926139965</v>
+        <v>1443.318789112099</v>
       </c>
       <c r="AC6" t="n">
-        <v>1163.017143715433</v>
+        <v>1305.570469589883</v>
       </c>
       <c r="AD6" t="n">
-        <v>939689.71638321</v>
+        <v>1054869.355036259</v>
       </c>
       <c r="AE6" t="n">
-        <v>1285724.926139964</v>
+        <v>1443318.789112099</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200466984458908e-06</v>
+        <v>1.782505235252342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.98495370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>1163017.143715433</v>
+        <v>1305570.469589883</v>
       </c>
     </row>
     <row r="7">
@@ -18515,28 +18515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>914.7745228690758</v>
+        <v>1029.954161522125</v>
       </c>
       <c r="AB7" t="n">
-        <v>1251.634859193164</v>
+        <v>1409.228722165299</v>
       </c>
       <c r="AC7" t="n">
-        <v>1132.180584912326</v>
+        <v>1274.733910786776</v>
       </c>
       <c r="AD7" t="n">
-        <v>914774.5228690758</v>
+        <v>1029954.161522125</v>
       </c>
       <c r="AE7" t="n">
-        <v>1251634.859193164</v>
+        <v>1409228.722165299</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.218659270663755e-06</v>
+        <v>1.809517927663841e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.57986111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1132180.584912326</v>
+        <v>1274733.910786776</v>
       </c>
     </row>
     <row r="8">
@@ -18621,28 +18621,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>895.6103719928525</v>
+        <v>1002.55688733248</v>
       </c>
       <c r="AB8" t="n">
-        <v>1225.413622501649</v>
+        <v>1371.742562936594</v>
       </c>
       <c r="AC8" t="n">
-        <v>1108.461866248912</v>
+        <v>1240.825377982703</v>
       </c>
       <c r="AD8" t="n">
-        <v>895610.3719928525</v>
+        <v>1002556.88733248</v>
       </c>
       <c r="AE8" t="n">
-        <v>1225413.622501649</v>
+        <v>1371742.562936594</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230918072752559e-06</v>
+        <v>1.827720326550359e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.31944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1108461.866248912</v>
+        <v>1240825.377982704</v>
       </c>
     </row>
     <row r="9">
@@ -18727,28 +18727,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>875.6483806964095</v>
+        <v>982.5948960360367</v>
       </c>
       <c r="AB9" t="n">
-        <v>1198.100745348954</v>
+        <v>1344.429685783898</v>
       </c>
       <c r="AC9" t="n">
-        <v>1083.755691757806</v>
+        <v>1216.119203491598</v>
       </c>
       <c r="AD9" t="n">
-        <v>875648.3806964095</v>
+        <v>982594.8960360368</v>
       </c>
       <c r="AE9" t="n">
-        <v>1198100.745348954</v>
+        <v>1344429.685783898</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241497586883994e-06</v>
+        <v>1.843429246137354e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1083755.691757806</v>
+        <v>1216119.203491597</v>
       </c>
     </row>
     <row r="10">
@@ -18833,28 +18833,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>854.7426372145402</v>
+        <v>969.8369350130174</v>
       </c>
       <c r="AB10" t="n">
-        <v>1169.49658482075</v>
+        <v>1326.973680670686</v>
       </c>
       <c r="AC10" t="n">
-        <v>1057.881472164223</v>
+        <v>1200.329175006733</v>
       </c>
       <c r="AD10" t="n">
-        <v>854742.6372145402</v>
+        <v>969836.9350130174</v>
       </c>
       <c r="AE10" t="n">
-        <v>1169496.58482075</v>
+        <v>1326973.680670686</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.247934857387247e-06</v>
+        <v>1.852987583452192e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.96064814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>1057881.472164223</v>
+        <v>1200329.175006733</v>
       </c>
     </row>
     <row r="11">
@@ -18939,28 +18939,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>841.0079585024274</v>
+        <v>956.1022563009047</v>
       </c>
       <c r="AB11" t="n">
-        <v>1150.704191475577</v>
+        <v>1308.181287325513</v>
       </c>
       <c r="AC11" t="n">
-        <v>1040.882598464623</v>
+        <v>1183.330301307134</v>
       </c>
       <c r="AD11" t="n">
-        <v>841007.9585024274</v>
+        <v>956102.2563009048</v>
       </c>
       <c r="AE11" t="n">
-        <v>1150704.191475577</v>
+        <v>1308181.287325514</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.253644436442306e-06</v>
+        <v>1.86146541307057e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.83912037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1040882.598464623</v>
+        <v>1183330.301307134</v>
       </c>
     </row>
     <row r="12">
@@ -19045,28 +19045,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>826.1257045911304</v>
+        <v>933.157471276778</v>
       </c>
       <c r="AB12" t="n">
-        <v>1130.341635115436</v>
+        <v>1276.787220203029</v>
       </c>
       <c r="AC12" t="n">
-        <v>1022.463415904467</v>
+        <v>1154.93243988897</v>
       </c>
       <c r="AD12" t="n">
-        <v>826125.7045911305</v>
+        <v>933157.471276778</v>
       </c>
       <c r="AE12" t="n">
-        <v>1130341.635115436</v>
+        <v>1276787.220203029</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.258738276579664e-06</v>
+        <v>1.86902896694579e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.73495370370371</v>
       </c>
       <c r="AH12" t="n">
-        <v>1022463.415904467</v>
+        <v>1154932.43988897</v>
       </c>
     </row>
     <row r="13">
@@ -19151,28 +19151,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>814.125426812528</v>
+        <v>921.1571934981756</v>
       </c>
       <c r="AB13" t="n">
-        <v>1113.92232564386</v>
+        <v>1260.367910731454</v>
       </c>
       <c r="AC13" t="n">
-        <v>1007.611142284213</v>
+        <v>1140.080166268716</v>
       </c>
       <c r="AD13" t="n">
-        <v>814125.4268125279</v>
+        <v>921157.1934981756</v>
       </c>
       <c r="AE13" t="n">
-        <v>1113922.32564386</v>
+        <v>1260367.910731454</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.262992472738336e-06</v>
+        <v>1.875345781171248e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.64814814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>1007611.142284213</v>
+        <v>1140080.166268716</v>
       </c>
     </row>
     <row r="14">
@@ -19257,28 +19257,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>810.6802526791886</v>
+        <v>917.7120193648361</v>
       </c>
       <c r="AB14" t="n">
-        <v>1109.208486404269</v>
+        <v>1255.654071491863</v>
       </c>
       <c r="AC14" t="n">
-        <v>1003.347185245734</v>
+        <v>1135.816209230237</v>
       </c>
       <c r="AD14" t="n">
-        <v>810680.2526791886</v>
+        <v>917712.0193648362</v>
       </c>
       <c r="AE14" t="n">
-        <v>1109208.486404269</v>
+        <v>1255654.071491863</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.264671760695706e-06</v>
+        <v>1.877839260470771e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.61342592592592</v>
       </c>
       <c r="AH14" t="n">
-        <v>1003347.185245734</v>
+        <v>1135816.209230237</v>
       </c>
     </row>
     <row r="15">
@@ -19363,28 +19363,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>813.6613660701166</v>
+        <v>920.6931327557645</v>
       </c>
       <c r="AB15" t="n">
-        <v>1113.287377263178</v>
+        <v>1259.732962350772</v>
       </c>
       <c r="AC15" t="n">
-        <v>1007.036792485827</v>
+        <v>1139.505816470331</v>
       </c>
       <c r="AD15" t="n">
-        <v>813661.3660701166</v>
+        <v>920693.1327557645</v>
       </c>
       <c r="AE15" t="n">
-        <v>1113287.377263178</v>
+        <v>1259732.962350772</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.264447855634723e-06</v>
+        <v>1.877506796564168e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.61921296296297</v>
       </c>
       <c r="AH15" t="n">
-        <v>1007036.792485827</v>
+        <v>1139505.816470331</v>
       </c>
     </row>
     <row r="16">
@@ -19469,28 +19469,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>816.0862661166215</v>
+        <v>923.1180328022691</v>
       </c>
       <c r="AB16" t="n">
-        <v>1116.605232485846</v>
+        <v>1263.05081757344</v>
       </c>
       <c r="AC16" t="n">
-        <v>1010.037996262683</v>
+        <v>1142.507020247186</v>
       </c>
       <c r="AD16" t="n">
-        <v>816086.2661166214</v>
+        <v>923118.0328022691</v>
       </c>
       <c r="AE16" t="n">
-        <v>1116605.232485846</v>
+        <v>1263050.81757344</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>1.877423680587517e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.61921296296297</v>
       </c>
       <c r="AH16" t="n">
-        <v>1010037.996262683</v>
+        <v>1142507.020247186</v>
       </c>
     </row>
     <row r="17">
@@ -19575,28 +19575,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>819.1700747609046</v>
+        <v>926.2018414465524</v>
       </c>
       <c r="AB17" t="n">
-        <v>1120.82463552099</v>
+        <v>1267.270220608584</v>
       </c>
       <c r="AC17" t="n">
-        <v>1013.854705394122</v>
+        <v>1146.323729378625</v>
       </c>
       <c r="AD17" t="n">
-        <v>819170.0747609047</v>
+        <v>926201.8414465524</v>
       </c>
       <c r="AE17" t="n">
-        <v>1120824.63552099</v>
+        <v>1267270.220608584</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>1.877423680587517e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.61921296296297</v>
       </c>
       <c r="AH17" t="n">
-        <v>1013854.705394122</v>
+        <v>1146323.729378625</v>
       </c>
     </row>
   </sheetData>
@@ -19872,28 +19872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1926.890410195354</v>
+        <v>2102.248446549343</v>
       </c>
       <c r="AB2" t="n">
-        <v>2636.456467634589</v>
+        <v>2876.389069224683</v>
       </c>
       <c r="AC2" t="n">
-        <v>2384.836762653436</v>
+        <v>2601.870533495292</v>
       </c>
       <c r="AD2" t="n">
-        <v>1926890.410195354</v>
+        <v>2102248.446549343</v>
       </c>
       <c r="AE2" t="n">
-        <v>2636456.467634589</v>
+        <v>2876389.069224683</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.703062810712926e-07</v>
+        <v>1.132691077637167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.2037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2384836.762653436</v>
+        <v>2601870.533495293</v>
       </c>
     </row>
     <row r="3">
@@ -19978,28 +19978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1292.048564387577</v>
+        <v>1433.972486746427</v>
       </c>
       <c r="AB3" t="n">
-        <v>1767.837846954803</v>
+        <v>1962.024418767741</v>
       </c>
       <c r="AC3" t="n">
-        <v>1599.117884017438</v>
+        <v>1774.771561959114</v>
       </c>
       <c r="AD3" t="n">
-        <v>1292048.564387577</v>
+        <v>1433972.486746427</v>
       </c>
       <c r="AE3" t="n">
-        <v>1767837.846954803</v>
+        <v>1962024.418767741</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000822286720466e-06</v>
+        <v>1.471651604465861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.71296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>1599117.884017438</v>
+        <v>1774771.561959114</v>
       </c>
     </row>
     <row r="4">
@@ -20084,28 +20084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1144.861321325643</v>
+        <v>1270.068320949751</v>
       </c>
       <c r="AB4" t="n">
-        <v>1566.449767554586</v>
+        <v>1737.763508183268</v>
       </c>
       <c r="AC4" t="n">
-        <v>1416.950000265232</v>
+        <v>1571.913797928658</v>
       </c>
       <c r="AD4" t="n">
-        <v>1144861.321325643</v>
+        <v>1270068.320949751</v>
       </c>
       <c r="AE4" t="n">
-        <v>1566449.767554586</v>
+        <v>1737763.508183268</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086216866971659e-06</v>
+        <v>1.59721942275572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1416950.000265232</v>
+        <v>1571913.797928658</v>
       </c>
     </row>
     <row r="5">
@@ -20190,28 +20190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.622526942863</v>
+        <v>1190.556361299897</v>
       </c>
       <c r="AB5" t="n">
-        <v>1468.977706246269</v>
+        <v>1628.971737170247</v>
       </c>
       <c r="AC5" t="n">
-        <v>1328.780535685284</v>
+        <v>1473.50496085091</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073622.526942863</v>
+        <v>1190556.361299897</v>
       </c>
       <c r="AE5" t="n">
-        <v>1468977.706246269</v>
+        <v>1628971.737170247</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.132012932809646e-06</v>
+        <v>1.664559903341483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.03819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1328780.535685284</v>
+        <v>1473504.96085091</v>
       </c>
     </row>
     <row r="6">
@@ -20296,28 +20296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1026.117486620586</v>
+        <v>1142.965980123048</v>
       </c>
       <c r="AB6" t="n">
-        <v>1403.979214302864</v>
+        <v>1563.856478104643</v>
       </c>
       <c r="AC6" t="n">
-        <v>1269.985408587001</v>
+        <v>1414.604210720688</v>
       </c>
       <c r="AD6" t="n">
-        <v>1026117.486620586</v>
+        <v>1142965.980123048</v>
       </c>
       <c r="AE6" t="n">
-        <v>1403979.214302863</v>
+        <v>1563856.478104644</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.161026248771676e-06</v>
+        <v>1.707222315592822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.33796296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>1269985.408587001</v>
+        <v>1414604.210720688</v>
       </c>
     </row>
     <row r="7">
@@ -20402,28 +20402,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>993.4516499242842</v>
+        <v>1110.385394772767</v>
       </c>
       <c r="AB7" t="n">
-        <v>1359.284375419976</v>
+        <v>1519.278283874406</v>
       </c>
       <c r="AC7" t="n">
-        <v>1229.556182397496</v>
+        <v>1374.280496781895</v>
       </c>
       <c r="AD7" t="n">
-        <v>993451.6499242842</v>
+        <v>1110385.394772767</v>
       </c>
       <c r="AE7" t="n">
-        <v>1359284.375419976</v>
+        <v>1519278.283874406</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.178138072174613e-06</v>
+        <v>1.732384267620077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.9386574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1229556.182397496</v>
+        <v>1374280.496781895</v>
       </c>
     </row>
     <row r="8">
@@ -20508,28 +20508,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>973.4534079668614</v>
+        <v>1090.387152815344</v>
       </c>
       <c r="AB8" t="n">
-        <v>1331.921898513662</v>
+        <v>1491.915806968092</v>
       </c>
       <c r="AC8" t="n">
-        <v>1204.805141883643</v>
+        <v>1349.529456268042</v>
       </c>
       <c r="AD8" t="n">
-        <v>973453.4079668614</v>
+        <v>1090387.152815344</v>
       </c>
       <c r="AE8" t="n">
-        <v>1331921.898513662</v>
+        <v>1491915.806968092</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.191739777956434e-06</v>
+        <v>1.752384793590459e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.63194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1204805.141883643</v>
+        <v>1349529.456268042</v>
       </c>
     </row>
     <row r="9">
@@ -20614,28 +20614,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>956.4009141918118</v>
+        <v>1073.164066839702</v>
       </c>
       <c r="AB9" t="n">
-        <v>1308.589924227708</v>
+        <v>1468.350420907291</v>
       </c>
       <c r="AC9" t="n">
-        <v>1183.699938476909</v>
+        <v>1328.213117578658</v>
       </c>
       <c r="AD9" t="n">
-        <v>956400.9141918118</v>
+        <v>1073164.066839702</v>
       </c>
       <c r="AE9" t="n">
-        <v>1308589.924227708</v>
+        <v>1468350.420907291</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.20227013081978e-06</v>
+        <v>1.767869071761078e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.40046296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1183699.938476909</v>
+        <v>1328213.117578658</v>
       </c>
     </row>
     <row r="10">
@@ -20720,28 +20720,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>942.0287060530301</v>
+        <v>1050.604034288417</v>
       </c>
       <c r="AB10" t="n">
-        <v>1288.925234995154</v>
+        <v>1437.48278909223</v>
       </c>
       <c r="AC10" t="n">
-        <v>1165.912019585145</v>
+        <v>1300.291449221033</v>
       </c>
       <c r="AD10" t="n">
-        <v>942028.7060530301</v>
+        <v>1050604.034288417</v>
       </c>
       <c r="AE10" t="n">
-        <v>1288925.234995154</v>
+        <v>1437482.78909223</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.210167895467289e-06</v>
+        <v>1.779482280389042e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.22685185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>1165912.019585145</v>
+        <v>1300291.449221032</v>
       </c>
     </row>
     <row r="11">
@@ -20826,28 +20826,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>928.1490242940877</v>
+        <v>1036.724352529474</v>
       </c>
       <c r="AB11" t="n">
-        <v>1269.934442084226</v>
+        <v>1418.491996181302</v>
       </c>
       <c r="AC11" t="n">
-        <v>1148.73368129589</v>
+        <v>1283.113110931778</v>
       </c>
       <c r="AD11" t="n">
-        <v>928149.0242940877</v>
+        <v>1036724.352529474</v>
       </c>
       <c r="AE11" t="n">
-        <v>1269934.442084226</v>
+        <v>1418491.996181302</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21680421159471e-06</v>
+        <v>1.789240601527817e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.08217592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>1148733.68129589</v>
+        <v>1283113.110931778</v>
       </c>
     </row>
     <row r="12">
@@ -20932,28 +20932,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>905.2457136472505</v>
+        <v>1022.094117641161</v>
       </c>
       <c r="AB12" t="n">
-        <v>1238.597122034469</v>
+        <v>1398.474263366701</v>
       </c>
       <c r="AC12" t="n">
-        <v>1120.387151089478</v>
+        <v>1265.005842441939</v>
       </c>
       <c r="AD12" t="n">
-        <v>905245.7136472504</v>
+        <v>1022094.117641161</v>
       </c>
       <c r="AE12" t="n">
-        <v>1238597.122034469</v>
+        <v>1398474.263366701</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.22360506448562e-06</v>
+        <v>1.799240864513008e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1120387.151089478</v>
+        <v>1265005.842441939</v>
       </c>
     </row>
     <row r="13">
@@ -21038,28 +21038,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>891.2473143506983</v>
+        <v>1008.095718344609</v>
       </c>
       <c r="AB13" t="n">
-        <v>1219.443894551135</v>
+        <v>1379.321035883367</v>
       </c>
       <c r="AC13" t="n">
-        <v>1103.06188075543</v>
+        <v>1247.68057210789</v>
       </c>
       <c r="AD13" t="n">
-        <v>891247.3143506983</v>
+        <v>1008095.718344609</v>
       </c>
       <c r="AE13" t="n">
-        <v>1219443.894551135</v>
+        <v>1379321.035883367</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.228157248275504e-06</v>
+        <v>1.805934588930515e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>1103061.88075543</v>
+        <v>1247680.57210789</v>
       </c>
     </row>
     <row r="14">
@@ -21144,28 +21144,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>882.5229406570921</v>
+        <v>999.3713446510027</v>
       </c>
       <c r="AB14" t="n">
-        <v>1207.50682157134</v>
+        <v>1367.383962903572</v>
       </c>
       <c r="AC14" t="n">
-        <v>1092.264065267039</v>
+        <v>1236.8827566195</v>
       </c>
       <c r="AD14" t="n">
-        <v>882522.9406570921</v>
+        <v>999371.3446510027</v>
       </c>
       <c r="AE14" t="n">
-        <v>1207506.82157134</v>
+        <v>1367383.962903572</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.231777057072279e-06</v>
+        <v>1.811257309551665e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.76967592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>1092264.065267039</v>
+        <v>1236882.7566195</v>
       </c>
     </row>
     <row r="15">
@@ -21250,28 +21250,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>874.4466827143485</v>
+        <v>983.1072622957555</v>
       </c>
       <c r="AB15" t="n">
-        <v>1196.456529154724</v>
+        <v>1345.13072790445</v>
       </c>
       <c r="AC15" t="n">
-        <v>1082.268397249482</v>
+        <v>1216.753339136082</v>
       </c>
       <c r="AD15" t="n">
-        <v>874446.6827143485</v>
+        <v>983107.2622957556</v>
       </c>
       <c r="AE15" t="n">
-        <v>1196456.529154724</v>
+        <v>1345130.72790445</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.234464490875945e-06</v>
+        <v>1.815209026376458e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.71180555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1082268.397249482</v>
+        <v>1216753.339136082</v>
       </c>
     </row>
     <row r="16">
@@ -21356,28 +21356,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>860.2337190825178</v>
+        <v>968.8942986639249</v>
       </c>
       <c r="AB16" t="n">
-        <v>1177.009725281952</v>
+        <v>1325.683924031677</v>
       </c>
       <c r="AC16" t="n">
-        <v>1064.677569044567</v>
+        <v>1199.162510931166</v>
       </c>
       <c r="AD16" t="n">
-        <v>860233.7190825178</v>
+        <v>968894.2986639249</v>
       </c>
       <c r="AE16" t="n">
-        <v>1177009.725281952</v>
+        <v>1325683.924031677</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.238084299672721e-06</v>
+        <v>1.820531746997608e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH16" t="n">
-        <v>1064677.569044566</v>
+        <v>1199162.510931166</v>
       </c>
     </row>
     <row r="17">
@@ -21462,28 +21462,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>854.2245994809498</v>
+        <v>962.8851790623567</v>
       </c>
       <c r="AB17" t="n">
-        <v>1168.78778273944</v>
+        <v>1317.461981489165</v>
       </c>
       <c r="AC17" t="n">
-        <v>1057.240317158743</v>
+        <v>1191.725259045343</v>
       </c>
       <c r="AD17" t="n">
-        <v>854224.5994809498</v>
+        <v>962885.1790623567</v>
       </c>
       <c r="AE17" t="n">
-        <v>1168787.78273944</v>
+        <v>1317461.981489165</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.239510284956298e-06</v>
+        <v>1.822628576333213e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.60763888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1057240.317158743</v>
+        <v>1191725.259045343</v>
       </c>
     </row>
     <row r="18">
@@ -21568,28 +21568,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>858.2791333087551</v>
+        <v>966.9397128901621</v>
       </c>
       <c r="AB18" t="n">
-        <v>1174.335374796051</v>
+        <v>1323.009573545776</v>
       </c>
       <c r="AC18" t="n">
-        <v>1062.258454815566</v>
+        <v>1196.743396702165</v>
       </c>
       <c r="AD18" t="n">
-        <v>858279.1333087551</v>
+        <v>966939.7128901621</v>
       </c>
       <c r="AE18" t="n">
-        <v>1174335.374796051</v>
+        <v>1323009.573545777</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.239071520253659e-06</v>
+        <v>1.821983398076104e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.61342592592592</v>
       </c>
       <c r="AH18" t="n">
-        <v>1062258.454815566</v>
+        <v>1196743.396702165</v>
       </c>
     </row>
     <row r="19">
@@ -21674,28 +21674,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>861.6155731535492</v>
+        <v>970.2761527349562</v>
       </c>
       <c r="AB19" t="n">
-        <v>1178.900438985036</v>
+        <v>1327.574637734761</v>
       </c>
       <c r="AC19" t="n">
-        <v>1066.387835685462</v>
+        <v>1200.872777572061</v>
       </c>
       <c r="AD19" t="n">
-        <v>861615.5731535492</v>
+        <v>970276.1527349562</v>
       </c>
       <c r="AE19" t="n">
-        <v>1178900.438985036</v>
+        <v>1327574.637734761</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239016674665829e-06</v>
+        <v>1.821902750793965e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.61342592592592</v>
       </c>
       <c r="AH19" t="n">
-        <v>1066387.835685462</v>
+        <v>1200872.777572061</v>
       </c>
     </row>
   </sheetData>
@@ -21971,28 +21971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2564.912773595604</v>
+        <v>2770.710066394914</v>
       </c>
       <c r="AB2" t="n">
-        <v>3509.426812799131</v>
+        <v>3791.007747942946</v>
       </c>
       <c r="AC2" t="n">
-        <v>3174.492043296917</v>
+        <v>3429.19928919192</v>
       </c>
       <c r="AD2" t="n">
-        <v>2564912.773595605</v>
+        <v>2770710.066394913</v>
       </c>
       <c r="AE2" t="n">
-        <v>3509426.812799131</v>
+        <v>3791007.747942946</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.511931404958771e-07</v>
+        <v>9.42128332198562e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.04282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>3174492.043296917</v>
+        <v>3429199.28919192</v>
       </c>
     </row>
     <row r="3">
@@ -22077,28 +22077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1564.864603669499</v>
+        <v>1719.16983571028</v>
       </c>
       <c r="AB3" t="n">
-        <v>2141.116787694538</v>
+        <v>2352.244013639127</v>
       </c>
       <c r="AC3" t="n">
-        <v>1936.771606553257</v>
+        <v>2127.749146372616</v>
       </c>
       <c r="AD3" t="n">
-        <v>1564864.603669499</v>
+        <v>1719169.835710281</v>
       </c>
       <c r="AE3" t="n">
-        <v>2141116.787694538</v>
+        <v>2352244.013639127</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.028085373560432e-07</v>
+        <v>1.306158570629565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.93518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1936771.606553257</v>
+        <v>2127749.146372616</v>
       </c>
     </row>
     <row r="4">
@@ -22183,28 +22183,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1347.492191432431</v>
+        <v>1484.718773911126</v>
       </c>
       <c r="AB4" t="n">
-        <v>1843.698263477768</v>
+        <v>2031.457727634668</v>
       </c>
       <c r="AC4" t="n">
-        <v>1667.738288858214</v>
+        <v>1837.578253278042</v>
       </c>
       <c r="AD4" t="n">
-        <v>1347492.191432431</v>
+        <v>1484718.773911126</v>
       </c>
       <c r="AE4" t="n">
-        <v>1843698.263477769</v>
+        <v>2031457.727634668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.000850135291038e-06</v>
+        <v>1.448002459031462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.60763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1667738.288858214</v>
+        <v>1837578.253278042</v>
       </c>
     </row>
     <row r="5">
@@ -22289,28 +22289,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1253.467739465658</v>
+        <v>1382.027075390003</v>
       </c>
       <c r="AB5" t="n">
-        <v>1715.049860230764</v>
+        <v>1890.950415280071</v>
       </c>
       <c r="AC5" t="n">
-        <v>1551.367908657936</v>
+        <v>1710.480761611316</v>
       </c>
       <c r="AD5" t="n">
-        <v>1253467.739465658</v>
+        <v>1382027.075390003</v>
       </c>
       <c r="AE5" t="n">
-        <v>1715049.860230764</v>
+        <v>1890950.41528007</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053364857295095e-06</v>
+        <v>1.523979315022111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.08564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1551367.908657936</v>
+        <v>1710480.761611316</v>
       </c>
     </row>
     <row r="6">
@@ -22395,28 +22395,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1197.265635977683</v>
+        <v>1317.328317548271</v>
       </c>
       <c r="AB6" t="n">
-        <v>1638.151662776703</v>
+        <v>1802.426720493264</v>
       </c>
       <c r="AC6" t="n">
-        <v>1481.808767241593</v>
+        <v>1630.405644011176</v>
       </c>
       <c r="AD6" t="n">
-        <v>1197265.635977683</v>
+        <v>1317328.317548271</v>
       </c>
       <c r="AE6" t="n">
-        <v>1638151.662776703</v>
+        <v>1802426.720493264</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.084439597029351e-06</v>
+        <v>1.568937394121416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.25231481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>1481808.767241593</v>
+        <v>1630405.644011176</v>
       </c>
     </row>
     <row r="7">
@@ -22501,28 +22501,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1153.212369297819</v>
+        <v>1273.360302214427</v>
       </c>
       <c r="AB7" t="n">
-        <v>1577.876039812352</v>
+        <v>1742.267742181561</v>
       </c>
       <c r="AC7" t="n">
-        <v>1427.285765135591</v>
+        <v>1575.988154155887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1153212.369297819</v>
+        <v>1273360.302214427</v>
       </c>
       <c r="AE7" t="n">
-        <v>1577876.039812352</v>
+        <v>1742267.742181561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.107626540817432e-06</v>
+        <v>1.60248362690761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1427285.765135591</v>
+        <v>1575988.154155886</v>
       </c>
     </row>
     <row r="8">
@@ -22607,28 +22607,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1129.729591047619</v>
+        <v>1249.706931763636</v>
       </c>
       <c r="AB8" t="n">
-        <v>1545.745866623369</v>
+        <v>1709.904157217731</v>
       </c>
       <c r="AC8" t="n">
-        <v>1398.222050580783</v>
+        <v>1546.713304318428</v>
       </c>
       <c r="AD8" t="n">
-        <v>1129729.591047619</v>
+        <v>1249706.931763635</v>
       </c>
       <c r="AE8" t="n">
-        <v>1545745.866623369</v>
+        <v>1709904.157217731</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.123137441570647e-06</v>
+        <v>1.624924371670977e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.27430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1398222.050580783</v>
+        <v>1546713.304318428</v>
       </c>
     </row>
     <row r="9">
@@ -22713,28 +22713,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1101.304594239166</v>
+        <v>1221.367186301203</v>
       </c>
       <c r="AB9" t="n">
-        <v>1506.853531967689</v>
+        <v>1671.128467214701</v>
       </c>
       <c r="AC9" t="n">
-        <v>1363.041545758907</v>
+        <v>1511.638311747264</v>
       </c>
       <c r="AD9" t="n">
-        <v>1101304.594239166</v>
+        <v>1221367.186301203</v>
       </c>
       <c r="AE9" t="n">
-        <v>1506853.531967689</v>
+        <v>1671128.467214701</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.135683801565568e-06</v>
+        <v>1.643076100370356e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.97337962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1363041.545758907</v>
+        <v>1511638.311747264</v>
       </c>
     </row>
     <row r="10">
@@ -22819,28 +22819,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1085.458131759371</v>
+        <v>1205.520723821408</v>
       </c>
       <c r="AB10" t="n">
-        <v>1485.171702906248</v>
+        <v>1649.44663815326</v>
       </c>
       <c r="AC10" t="n">
-        <v>1343.429000032452</v>
+        <v>1492.025766020808</v>
       </c>
       <c r="AD10" t="n">
-        <v>1085458.131759371</v>
+        <v>1205520.723821408</v>
       </c>
       <c r="AE10" t="n">
-        <v>1485171.702906248</v>
+        <v>1649446.63815326</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.145371497257849e-06</v>
+        <v>1.657091992150889e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.74768518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>1343429.000032451</v>
+        <v>1492025.766020808</v>
       </c>
     </row>
     <row r="11">
@@ -22925,28 +22925,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1071.779906052189</v>
+        <v>1191.842498114226</v>
       </c>
       <c r="AB11" t="n">
-        <v>1466.456551052952</v>
+        <v>1630.731486299964</v>
       </c>
       <c r="AC11" t="n">
-        <v>1326.499996005154</v>
+        <v>1475.096761993511</v>
       </c>
       <c r="AD11" t="n">
-        <v>1071779.906052189</v>
+        <v>1191842.498114226</v>
       </c>
       <c r="AE11" t="n">
-        <v>1466456.551052952</v>
+        <v>1630731.486299964</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.153312231431849e-06</v>
+        <v>1.668580428036572e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1326499.996005154</v>
+        <v>1475096.761993511</v>
       </c>
     </row>
     <row r="12">
@@ -23031,28 +23031,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1057.567770523409</v>
+        <v>1169.048456885668</v>
       </c>
       <c r="AB12" t="n">
-        <v>1447.010880227306</v>
+        <v>1599.543673488923</v>
       </c>
       <c r="AC12" t="n">
-        <v>1308.910192710937</v>
+        <v>1446.885470264785</v>
       </c>
       <c r="AD12" t="n">
-        <v>1057567.770523409</v>
+        <v>1169048.456885668</v>
       </c>
       <c r="AE12" t="n">
-        <v>1447010.880227306</v>
+        <v>1599543.673488923</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.160723583327583e-06</v>
+        <v>1.679302968196543e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.39467592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>1308910.192710937</v>
+        <v>1446885.470264785</v>
       </c>
     </row>
     <row r="13">
@@ -23137,28 +23137,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1048.782775525045</v>
+        <v>1160.263461887304</v>
       </c>
       <c r="AB13" t="n">
-        <v>1434.990862503919</v>
+        <v>1587.523655765536</v>
       </c>
       <c r="AC13" t="n">
-        <v>1298.037348608869</v>
+        <v>1436.012626162717</v>
       </c>
       <c r="AD13" t="n">
-        <v>1048782.775525045</v>
+        <v>1160263.461887304</v>
       </c>
       <c r="AE13" t="n">
-        <v>1434990.862503919</v>
+        <v>1587523.655765536</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.165593900287637e-06</v>
+        <v>1.686349208873095e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.28472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1298037.348608869</v>
+        <v>1436012.626162717</v>
       </c>
     </row>
     <row r="14">
@@ -23243,28 +23243,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1036.593547595054</v>
+        <v>1148.074233957313</v>
       </c>
       <c r="AB14" t="n">
-        <v>1418.313023099321</v>
+        <v>1570.845816360938</v>
       </c>
       <c r="AC14" t="n">
-        <v>1282.951218789551</v>
+        <v>1420.9264963434</v>
       </c>
       <c r="AD14" t="n">
-        <v>1036593.547595054</v>
+        <v>1148074.233957313</v>
       </c>
       <c r="AE14" t="n">
-        <v>1418313.023099321</v>
+        <v>1570845.816360938</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.170993599525958e-06</v>
+        <v>1.694161345275359e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.16319444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1282951.218789551</v>
+        <v>1420926.4963434</v>
       </c>
     </row>
     <row r="15">
@@ -23349,28 +23349,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1028.285226475595</v>
+        <v>1139.765912837854</v>
       </c>
       <c r="AB15" t="n">
-        <v>1406.945211606419</v>
+        <v>1559.478004868036</v>
       </c>
       <c r="AC15" t="n">
-        <v>1272.668335270708</v>
+        <v>1410.643612824556</v>
       </c>
       <c r="AD15" t="n">
-        <v>1028285.226475595</v>
+        <v>1139765.912837854</v>
       </c>
       <c r="AE15" t="n">
-        <v>1406945.211606419</v>
+        <v>1559478.004868036</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.174222831423384e-06</v>
+        <v>1.698833309202203e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.08796296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>1272668.335270708</v>
+        <v>1410643.612824556</v>
       </c>
     </row>
     <row r="16">
@@ -23455,28 +23455,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1021.036477807495</v>
+        <v>1132.517164169754</v>
       </c>
       <c r="AB16" t="n">
-        <v>1397.027153886503</v>
+        <v>1549.55994714812</v>
       </c>
       <c r="AC16" t="n">
-        <v>1263.6968430595</v>
+        <v>1401.672120613347</v>
       </c>
       <c r="AD16" t="n">
-        <v>1021036.477807495</v>
+        <v>1132517.164169754</v>
       </c>
       <c r="AE16" t="n">
-        <v>1397027.153886503</v>
+        <v>1549559.94714812</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.177399125092985e-06</v>
+        <v>1.703428683556477e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.01851851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>1263696.8430595</v>
+        <v>1401672.120613348</v>
       </c>
     </row>
     <row r="17">
@@ -23561,28 +23561,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1001.569671605723</v>
+        <v>1121.546922813188</v>
       </c>
       <c r="AB17" t="n">
-        <v>1370.39181082636</v>
+        <v>1534.549978951175</v>
       </c>
       <c r="AC17" t="n">
-        <v>1239.603539758078</v>
+        <v>1388.094682714496</v>
       </c>
       <c r="AD17" t="n">
-        <v>1001569.671605723</v>
+        <v>1121546.922813188</v>
       </c>
       <c r="AE17" t="n">
-        <v>1370391.81082636</v>
+        <v>1534549.978951175</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.180998924585198e-06</v>
+        <v>1.70863677449132e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.94328703703704</v>
       </c>
       <c r="AH17" t="n">
-        <v>1239603.539758078</v>
+        <v>1388094.682714496</v>
       </c>
     </row>
     <row r="18">
@@ -23667,28 +23667,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>994.5969691452248</v>
+        <v>1114.57422035269</v>
       </c>
       <c r="AB18" t="n">
-        <v>1360.851451705985</v>
+        <v>1525.0096198308</v>
       </c>
       <c r="AC18" t="n">
-        <v>1230.973699122174</v>
+        <v>1379.464842078592</v>
       </c>
       <c r="AD18" t="n">
-        <v>994596.9691452248</v>
+        <v>1114574.22035269</v>
       </c>
       <c r="AE18" t="n">
-        <v>1360851.451705985</v>
+        <v>1525009.6198308</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.183010577242612e-06</v>
+        <v>1.711547178249026e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.89699074074074</v>
       </c>
       <c r="AH18" t="n">
-        <v>1230973.699122174</v>
+        <v>1379464.842078591</v>
       </c>
     </row>
     <row r="19">
@@ -23773,28 +23773,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>986.362401869573</v>
+        <v>1106.339653077038</v>
       </c>
       <c r="AB19" t="n">
-        <v>1349.584553475969</v>
+        <v>1513.742721600784</v>
       </c>
       <c r="AC19" t="n">
-        <v>1220.782097846039</v>
+        <v>1369.273240802457</v>
       </c>
       <c r="AD19" t="n">
-        <v>986362.4018695729</v>
+        <v>1106339.653077038</v>
       </c>
       <c r="AE19" t="n">
-        <v>1349584.553475969</v>
+        <v>1513742.721600784</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.184545785849585e-06</v>
+        <v>1.713768275853591e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.86226851851852</v>
       </c>
       <c r="AH19" t="n">
-        <v>1220782.097846039</v>
+        <v>1369273.240802457</v>
       </c>
     </row>
     <row r="20">
@@ -23879,28 +23879,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>977.8499792996174</v>
+        <v>1097.827230507083</v>
       </c>
       <c r="AB20" t="n">
-        <v>1337.937481374177</v>
+        <v>1502.095649498991</v>
       </c>
       <c r="AC20" t="n">
-        <v>1210.246605958874</v>
+        <v>1358.737748915292</v>
       </c>
       <c r="AD20" t="n">
-        <v>977849.9792996175</v>
+        <v>1097827.230507083</v>
       </c>
       <c r="AE20" t="n">
-        <v>1337937.481374177</v>
+        <v>1502095.649498991</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.187880894202665e-06</v>
+        <v>1.718593418925578e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.79282407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>1210246.605958874</v>
+        <v>1358737.748915292</v>
       </c>
     </row>
     <row r="21">
@@ -23985,28 +23985,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>971.815544719823</v>
+        <v>1091.792795927289</v>
       </c>
       <c r="AB21" t="n">
-        <v>1329.680901761638</v>
+        <v>1493.839069886452</v>
       </c>
       <c r="AC21" t="n">
-        <v>1202.778022716373</v>
+        <v>1351.269165672791</v>
       </c>
       <c r="AD21" t="n">
-        <v>971815.5447198231</v>
+        <v>1091792.795927288</v>
       </c>
       <c r="AE21" t="n">
-        <v>1329680.901761638</v>
+        <v>1493839.069886452</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.189257288126159e-06</v>
+        <v>1.72058474781243e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.75810185185185</v>
       </c>
       <c r="AH21" t="n">
-        <v>1202778.022716373</v>
+        <v>1351269.165672791</v>
       </c>
     </row>
     <row r="22">
@@ -24091,28 +24091,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>961.0641828940553</v>
+        <v>1072.630120602335</v>
       </c>
       <c r="AB22" t="n">
-        <v>1314.970414195014</v>
+        <v>1467.61985210928</v>
       </c>
       <c r="AC22" t="n">
-        <v>1189.471483436809</v>
+        <v>1327.552273241369</v>
       </c>
       <c r="AD22" t="n">
-        <v>961064.1828940553</v>
+        <v>1072630.120602335</v>
       </c>
       <c r="AE22" t="n">
-        <v>1314970.414195014</v>
+        <v>1467619.85210928</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.191798323061839e-06</v>
+        <v>1.724261047295848e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.70601851851852</v>
       </c>
       <c r="AH22" t="n">
-        <v>1189471.483436809</v>
+        <v>1327552.273241369</v>
       </c>
     </row>
     <row r="23">
@@ -24197,28 +24197,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>955.6958220903223</v>
+        <v>1067.261759798602</v>
       </c>
       <c r="AB23" t="n">
-        <v>1307.625186107983</v>
+        <v>1460.274624022249</v>
       </c>
       <c r="AC23" t="n">
-        <v>1182.827273609311</v>
+        <v>1320.908063413872</v>
       </c>
       <c r="AD23" t="n">
-        <v>955695.8220903223</v>
+        <v>1067261.759798602</v>
       </c>
       <c r="AE23" t="n">
-        <v>1307625.186107983</v>
+        <v>1460274.624022249</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>1.726022607464986e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1182827.273609311</v>
+        <v>1320908.063413872</v>
       </c>
     </row>
     <row r="24">
@@ -24303,28 +24303,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>953.9035818966838</v>
+        <v>1065.469519604963</v>
       </c>
       <c r="AB24" t="n">
-        <v>1305.172964006989</v>
+        <v>1457.822401921256</v>
       </c>
       <c r="AC24" t="n">
-        <v>1180.609088143922</v>
+        <v>1318.689877948482</v>
       </c>
       <c r="AD24" t="n">
-        <v>953903.5818966838</v>
+        <v>1065469.519604963</v>
       </c>
       <c r="AE24" t="n">
-        <v>1305172.964006989</v>
+        <v>1457822.401921256</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.192962964074026e-06</v>
+        <v>1.725946017892415e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.68287037037037</v>
       </c>
       <c r="AH24" t="n">
-        <v>1180609.088143921</v>
+        <v>1318689.877948482</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24409,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>953.5107286572818</v>
+        <v>1065.076666365561</v>
       </c>
       <c r="AB25" t="n">
-        <v>1304.635444873378</v>
+        <v>1457.284882787644</v>
       </c>
       <c r="AC25" t="n">
-        <v>1180.122869082009</v>
+        <v>1318.20365888657</v>
       </c>
       <c r="AD25" t="n">
-        <v>953510.7286572818</v>
+        <v>1065076.666365561</v>
       </c>
       <c r="AE25" t="n">
-        <v>1304635.444873378</v>
+        <v>1457284.882787644</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.192751211162719e-06</v>
+        <v>1.72563965960213e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.68287037037037</v>
       </c>
       <c r="AH25" t="n">
-        <v>1180122.869082009</v>
+        <v>1318203.65888657</v>
       </c>
     </row>
     <row r="26">
@@ -24515,28 +24515,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>954.0285313495472</v>
+        <v>1065.594469057826</v>
       </c>
       <c r="AB26" t="n">
-        <v>1305.343925360778</v>
+        <v>1457.993363275044</v>
       </c>
       <c r="AC26" t="n">
-        <v>1180.76373318605</v>
+        <v>1318.84452299061</v>
       </c>
       <c r="AD26" t="n">
-        <v>954028.5313495472</v>
+        <v>1065594.469057827</v>
       </c>
       <c r="AE26" t="n">
-        <v>1305343.925360778</v>
+        <v>1457993.363275044</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.194709925592306e-06</v>
+        <v>1.728473473787265e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1180763.73318605</v>
+        <v>1318844.52299061</v>
       </c>
     </row>
   </sheetData>
@@ -24812,28 +24812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1418.528739741954</v>
+        <v>1564.168054593514</v>
       </c>
       <c r="AB2" t="n">
-        <v>1940.893602786188</v>
+        <v>2140.1637385192</v>
       </c>
       <c r="AC2" t="n">
-        <v>1755.657441397555</v>
+        <v>1935.909515053599</v>
       </c>
       <c r="AD2" t="n">
-        <v>1418528.739741954</v>
+        <v>1564168.054593514</v>
       </c>
       <c r="AE2" t="n">
-        <v>1940893.602786188</v>
+        <v>2140163.7385192</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.141607347658453e-07</v>
+        <v>1.372781110152628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.25578703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1755657.441397554</v>
+        <v>1935909.515053599</v>
       </c>
     </row>
     <row r="3">
@@ -24918,28 +24918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1039.839286746742</v>
+        <v>1169.201552768782</v>
       </c>
       <c r="AB3" t="n">
-        <v>1422.753986598567</v>
+        <v>1599.753146030314</v>
       </c>
       <c r="AC3" t="n">
-        <v>1286.968342965361</v>
+        <v>1447.074951040822</v>
       </c>
       <c r="AD3" t="n">
-        <v>1039839.286746742</v>
+        <v>1169201.552768782</v>
       </c>
       <c r="AE3" t="n">
-        <v>1422753.986598567</v>
+        <v>1599753.146030314</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114437648027101e-06</v>
+        <v>1.67353386934344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1286968.342965361</v>
+        <v>1447074.951040823</v>
       </c>
     </row>
     <row r="4">
@@ -25024,28 +25024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.5229650645617</v>
+        <v>1057.789421853403</v>
       </c>
       <c r="AB4" t="n">
-        <v>1281.392037278582</v>
+        <v>1447.31415335557</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.097779685733</v>
+        <v>1309.184521877486</v>
       </c>
       <c r="AD4" t="n">
-        <v>936522.9650645617</v>
+        <v>1057789.421853403</v>
       </c>
       <c r="AE4" t="n">
-        <v>1281392.037278582</v>
+        <v>1447314.153355571</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186942815939239e-06</v>
+        <v>1.782413764435109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.92245370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159097.779685733</v>
+        <v>1309184.521877486</v>
       </c>
     </row>
     <row r="5">
@@ -25130,28 +25130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>893.2361539214397</v>
+        <v>1006.406890985633</v>
       </c>
       <c r="AB5" t="n">
-        <v>1222.165112593233</v>
+        <v>1377.010307785011</v>
       </c>
       <c r="AC5" t="n">
-        <v>1105.523389566843</v>
+        <v>1245.590376656114</v>
       </c>
       <c r="AD5" t="n">
-        <v>893236.1539214398</v>
+        <v>1006406.890985633</v>
       </c>
       <c r="AE5" t="n">
-        <v>1222165.112593233</v>
+        <v>1377010.307785011</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224455363318743e-06</v>
+        <v>1.838745779668161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.06597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1105523.389566843</v>
+        <v>1245590.376656114</v>
       </c>
     </row>
     <row r="6">
@@ -25236,28 +25236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>854.0595037527667</v>
+        <v>967.3154921629803</v>
       </c>
       <c r="AB6" t="n">
-        <v>1168.56189148063</v>
+        <v>1323.523731325057</v>
       </c>
       <c r="AC6" t="n">
-        <v>1057.035984644634</v>
+        <v>1197.208483984617</v>
       </c>
       <c r="AD6" t="n">
-        <v>854059.5037527666</v>
+        <v>967315.4921629803</v>
       </c>
       <c r="AE6" t="n">
-        <v>1168561.89148063</v>
+        <v>1323523.731325058</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.247306518134654e-06</v>
+        <v>1.873061007268143e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.57407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1057035.984644634</v>
+        <v>1197208.483984617</v>
       </c>
     </row>
     <row r="7">
@@ -25342,28 +25342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>832.1466111518705</v>
+        <v>937.3068798374359</v>
       </c>
       <c r="AB7" t="n">
-        <v>1138.579705095491</v>
+        <v>1282.464624054708</v>
       </c>
       <c r="AC7" t="n">
-        <v>1029.915256047829</v>
+        <v>1160.06800028533</v>
       </c>
       <c r="AD7" t="n">
-        <v>832146.6111518705</v>
+        <v>937306.8798374359</v>
       </c>
       <c r="AE7" t="n">
-        <v>1138579.705095491</v>
+        <v>1282464.624054708</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.262769705604067e-06</v>
+        <v>1.896281837974897e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.24421296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>1029915.256047829</v>
+        <v>1160068.00028533</v>
       </c>
     </row>
     <row r="8">
@@ -25448,28 +25448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>803.3774664958922</v>
+        <v>916.5481140515341</v>
       </c>
       <c r="AB8" t="n">
-        <v>1099.216492172095</v>
+        <v>1254.061564894325</v>
       </c>
       <c r="AC8" t="n">
-        <v>994.3088129192261</v>
+        <v>1134.37568922727</v>
       </c>
       <c r="AD8" t="n">
-        <v>803377.4664958923</v>
+        <v>916548.1140515341</v>
       </c>
       <c r="AE8" t="n">
-        <v>1099216.492172095</v>
+        <v>1254061.564894325</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.27559842409721e-06</v>
+        <v>1.915546527153833e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>994308.812919226</v>
+        <v>1134375.68922727</v>
       </c>
     </row>
     <row r="9">
@@ -25554,28 +25554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>786.9839302925617</v>
+        <v>900.1545778482035</v>
       </c>
       <c r="AB9" t="n">
-        <v>1076.786132706924</v>
+        <v>1231.631205429154</v>
       </c>
       <c r="AC9" t="n">
-        <v>974.0191754802036</v>
+        <v>1114.086051788248</v>
       </c>
       <c r="AD9" t="n">
-        <v>786983.9302925617</v>
+        <v>900154.5778482035</v>
       </c>
       <c r="AE9" t="n">
-        <v>1076786.132706924</v>
+        <v>1231631.205429154</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.282528222926096e-06</v>
+        <v>1.925952899433527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.83912037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>974019.1754802036</v>
+        <v>1114086.051788248</v>
       </c>
     </row>
     <row r="10">
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>769.7076556906711</v>
+        <v>874.953175722257</v>
       </c>
       <c r="AB10" t="n">
-        <v>1053.147971621174</v>
+        <v>1197.14953523304</v>
       </c>
       <c r="AC10" t="n">
-        <v>952.6370073121097</v>
+        <v>1082.895263800323</v>
       </c>
       <c r="AD10" t="n">
-        <v>769707.6556906711</v>
+        <v>874953.175722257</v>
       </c>
       <c r="AE10" t="n">
-        <v>1053147.971621174</v>
+        <v>1197149.53523304</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.289629834949086e-06</v>
+        <v>1.936617280943296e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.70023148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>952637.0073121097</v>
+        <v>1082895.263800323</v>
       </c>
     </row>
     <row r="11">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>760.5818843538531</v>
+        <v>865.8274043854391</v>
       </c>
       <c r="AB11" t="n">
-        <v>1040.661688677522</v>
+        <v>1184.663252289388</v>
       </c>
       <c r="AC11" t="n">
-        <v>941.342397687992</v>
+        <v>1071.600654176205</v>
       </c>
       <c r="AD11" t="n">
-        <v>760581.8843538531</v>
+        <v>865827.4043854391</v>
       </c>
       <c r="AE11" t="n">
-        <v>1040661.688677522</v>
+        <v>1184663.252289388</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.292665201378267e-06</v>
+        <v>1.941175444007954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>941342.3976879921</v>
+        <v>1071600.654176205</v>
       </c>
     </row>
     <row r="12">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>761.949627218857</v>
+        <v>867.1951472504433</v>
       </c>
       <c r="AB12" t="n">
-        <v>1042.533094805977</v>
+        <v>1186.534658417843</v>
       </c>
       <c r="AC12" t="n">
-        <v>943.0351994420824</v>
+        <v>1073.293455930296</v>
       </c>
       <c r="AD12" t="n">
-        <v>761949.6272188571</v>
+        <v>867195.1472504432</v>
       </c>
       <c r="AE12" t="n">
-        <v>1042533.094805977</v>
+        <v>1186534.658417843</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.292378846054759e-06</v>
+        <v>1.940745428624496e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.64814814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>943035.1994420824</v>
+        <v>1073293.455930296</v>
       </c>
     </row>
   </sheetData>
@@ -26169,28 +26169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1087.618584292634</v>
+        <v>1221.12250730343</v>
       </c>
       <c r="AB2" t="n">
-        <v>1488.127729374698</v>
+        <v>1670.793686615472</v>
       </c>
       <c r="AC2" t="n">
-        <v>1346.102907483562</v>
+        <v>1511.335482138558</v>
       </c>
       <c r="AD2" t="n">
-        <v>1087618.584292634</v>
+        <v>1221122.50730343</v>
       </c>
       <c r="AE2" t="n">
-        <v>1488127.729374697</v>
+        <v>1670793.686615472</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04621295999079e-06</v>
+        <v>1.604625726023802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.99768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>1346102.907483562</v>
+        <v>1511335.482138558</v>
       </c>
     </row>
     <row r="3">
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>855.462620740035</v>
+        <v>965.3920572831407</v>
       </c>
       <c r="AB3" t="n">
-        <v>1170.481698043764</v>
+        <v>1320.892002866503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1058.772567563847</v>
+        <v>1194.827923996493</v>
       </c>
       <c r="AD3" t="n">
-        <v>855462.6207400351</v>
+        <v>965392.0572831407</v>
       </c>
       <c r="AE3" t="n">
-        <v>1170481.698043764</v>
+        <v>1320892.002866503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218265088439979e-06</v>
+        <v>1.868510118670928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.33912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1058772.567563847</v>
+        <v>1194827.923996493</v>
       </c>
     </row>
     <row r="4">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>777.3898250102046</v>
+        <v>887.3191720447592</v>
       </c>
       <c r="AB4" t="n">
-        <v>1063.65905459755</v>
+        <v>1214.069236950742</v>
       </c>
       <c r="AC4" t="n">
-        <v>962.1449272816188</v>
+        <v>1098.200172933038</v>
       </c>
       <c r="AD4" t="n">
-        <v>777389.8250102046</v>
+        <v>887319.1720447592</v>
       </c>
       <c r="AE4" t="n">
-        <v>1063659.054597551</v>
+        <v>1214069.236950742</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279235017453527e-06</v>
+        <v>1.962022549075006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>962144.9272816188</v>
+        <v>1098200.172933038</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>741.8325055526578</v>
+        <v>843.9037501036831</v>
       </c>
       <c r="AB5" t="n">
-        <v>1015.007961437513</v>
+        <v>1154.666341297724</v>
       </c>
       <c r="AC5" t="n">
-        <v>918.1370261705368</v>
+        <v>1044.466606268657</v>
       </c>
       <c r="AD5" t="n">
-        <v>741832.5055526579</v>
+        <v>843903.7501036831</v>
       </c>
       <c r="AE5" t="n">
-        <v>1015007.961437513</v>
+        <v>1154666.341297724</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.310018269284242e-06</v>
+        <v>2.009236261490373e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>918137.0261705369</v>
+        <v>1044466.606268657</v>
       </c>
     </row>
     <row r="6">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>706.2840179132363</v>
+        <v>816.128024093219</v>
       </c>
       <c r="AB6" t="n">
-        <v>966.3689523606653</v>
+        <v>1116.662367591658</v>
       </c>
       <c r="AC6" t="n">
-        <v>874.1400558547057</v>
+        <v>1010.089678474186</v>
       </c>
       <c r="AD6" t="n">
-        <v>706284.0179132363</v>
+        <v>816128.024093219</v>
       </c>
       <c r="AE6" t="n">
-        <v>966368.9523606653</v>
+        <v>1116662.367591659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.328929685622103e-06</v>
+        <v>2.038241584815316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.97800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>874140.0558547056</v>
+        <v>1010089.678474186</v>
       </c>
     </row>
     <row r="7">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>686.4420626575029</v>
+        <v>796.2860688374856</v>
       </c>
       <c r="AB7" t="n">
-        <v>939.2203138144853</v>
+        <v>1089.513729045479</v>
       </c>
       <c r="AC7" t="n">
-        <v>849.5824452680197</v>
+        <v>985.5320678875001</v>
       </c>
       <c r="AD7" t="n">
-        <v>686442.0626575029</v>
+        <v>796286.0688374856</v>
       </c>
       <c r="AE7" t="n">
-        <v>939220.3138144853</v>
+        <v>1089513.729045479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.339906659143134e-06</v>
+        <v>2.055077482265757e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.76388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>849582.4452680197</v>
+        <v>985532.0678875002</v>
       </c>
     </row>
     <row r="8">
@@ -26805,28 +26805,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>685.6876525172449</v>
+        <v>795.5316586972277</v>
       </c>
       <c r="AB8" t="n">
-        <v>938.1880965783579</v>
+        <v>1088.481511809351</v>
       </c>
       <c r="AC8" t="n">
-        <v>848.6487413961823</v>
+        <v>984.5983640156627</v>
       </c>
       <c r="AD8" t="n">
-        <v>685687.6525172449</v>
+        <v>795531.6586972277</v>
       </c>
       <c r="AE8" t="n">
-        <v>938188.0965783579</v>
+        <v>1088481.511809351</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340264603931863e-06</v>
+        <v>2.05562647892175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.75810185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>848648.7413961823</v>
+        <v>984598.3640156627</v>
       </c>
     </row>
     <row r="9">
@@ -26911,28 +26911,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>689.3048592766605</v>
+        <v>799.1488654566433</v>
       </c>
       <c r="AB9" t="n">
-        <v>943.13731844649</v>
+        <v>1093.430733677483</v>
       </c>
       <c r="AC9" t="n">
-        <v>853.1256164754964</v>
+        <v>989.0752390949766</v>
       </c>
       <c r="AD9" t="n">
-        <v>689304.8592766605</v>
+        <v>799148.8654566433</v>
       </c>
       <c r="AE9" t="n">
-        <v>943137.31844649</v>
+        <v>1093430.733677483</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340204946467075e-06</v>
+        <v>2.055534979479085e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.75810185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>853125.6164754963</v>
+        <v>989075.2390949766</v>
       </c>
     </row>
   </sheetData>
@@ -50957,28 +50957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>884.3144353001223</v>
+        <v>1006.921255887013</v>
       </c>
       <c r="AB2" t="n">
-        <v>1209.9580235771</v>
+        <v>1377.714084535258</v>
       </c>
       <c r="AC2" t="n">
-        <v>1094.481327993653</v>
+        <v>1246.226985941075</v>
       </c>
       <c r="AD2" t="n">
-        <v>884314.4353001224</v>
+        <v>1006921.255887013</v>
       </c>
       <c r="AE2" t="n">
-        <v>1209958.0235771</v>
+        <v>1377714.084535258</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15378439032785e-06</v>
+        <v>1.8027653510684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.95486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1094481.327993653</v>
+        <v>1246226.985941075</v>
       </c>
     </row>
     <row r="3">
@@ -51063,28 +51063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.5810715491676</v>
+        <v>829.7661206098551</v>
       </c>
       <c r="AB3" t="n">
-        <v>988.6673001206103</v>
+        <v>1135.322612916075</v>
       </c>
       <c r="AC3" t="n">
-        <v>894.3102806003692</v>
+        <v>1026.969016174659</v>
       </c>
       <c r="AD3" t="n">
-        <v>722581.0715491676</v>
+        <v>829766.120609855</v>
       </c>
       <c r="AE3" t="n">
-        <v>988667.3001206103</v>
+        <v>1135322.612916075</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30263590666668e-06</v>
+        <v>2.035342909197249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>894310.2806003692</v>
+        <v>1026969.016174659</v>
       </c>
     </row>
     <row r="4">
@@ -51169,28 +51169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.2694038984619</v>
+        <v>762.8715337236296</v>
       </c>
       <c r="AB4" t="n">
-        <v>907.5144597948117</v>
+        <v>1043.794487957451</v>
       </c>
       <c r="AC4" t="n">
-        <v>820.902553456538</v>
+        <v>944.1762070015561</v>
       </c>
       <c r="AD4" t="n">
-        <v>663269.4038984618</v>
+        <v>762871.5337236295</v>
       </c>
       <c r="AE4" t="n">
-        <v>907514.4597948117</v>
+        <v>1043794.487957451</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354906733507057e-06</v>
+        <v>2.117015045074172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.35995370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>820902.553456538</v>
+        <v>944176.2070015562</v>
       </c>
     </row>
     <row r="5">
@@ -51275,28 +51275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>626.1701612042862</v>
+        <v>733.3551207564225</v>
       </c>
       <c r="AB5" t="n">
-        <v>856.7536392375655</v>
+        <v>1003.408829563482</v>
       </c>
       <c r="AC5" t="n">
-        <v>774.9862743700163</v>
+        <v>907.6448991630792</v>
       </c>
       <c r="AD5" t="n">
-        <v>626170.1612042862</v>
+        <v>733355.1207564225</v>
       </c>
       <c r="AE5" t="n">
-        <v>856753.6392375655</v>
+        <v>1003408.829563482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3775553680412e-06</v>
+        <v>2.152403089781174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>774986.2743700163</v>
+        <v>907644.8991630792</v>
       </c>
     </row>
     <row r="6">
@@ -51381,28 +51381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>627.9570972578437</v>
+        <v>735.1420568099801</v>
       </c>
       <c r="AB6" t="n">
-        <v>859.1986039800976</v>
+        <v>1005.853794306013</v>
       </c>
       <c r="AC6" t="n">
-        <v>777.1978951090508</v>
+        <v>909.8565199021136</v>
       </c>
       <c r="AD6" t="n">
-        <v>627957.0972578437</v>
+        <v>735142.0568099801</v>
       </c>
       <c r="AE6" t="n">
-        <v>859198.6039800976</v>
+        <v>1005853.794306014</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378295922848855e-06</v>
+        <v>2.153560192060421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.91435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>777197.8951090508</v>
+        <v>909856.5199021136</v>
       </c>
     </row>
     <row r="7">
@@ -51487,28 +51487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>631.8424081656492</v>
+        <v>739.0273677177856</v>
       </c>
       <c r="AB7" t="n">
-        <v>864.5146577719771</v>
+        <v>1011.169848097893</v>
       </c>
       <c r="AC7" t="n">
-        <v>782.0065921881618</v>
+        <v>914.6652169812245</v>
       </c>
       <c r="AD7" t="n">
-        <v>631842.4081656492</v>
+        <v>739027.3677177856</v>
       </c>
       <c r="AE7" t="n">
-        <v>864514.6577719771</v>
+        <v>1011169.848097893</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.153463766870484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.91435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>782006.5921881618</v>
+        <v>914665.2169812245</v>
       </c>
     </row>
   </sheetData>
@@ -51784,28 +51784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>560.4825847201504</v>
+        <v>669.6882453984776</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.8769991606223</v>
+        <v>916.2970019144344</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.6873346793599</v>
+        <v>828.8469020826393</v>
       </c>
       <c r="AD2" t="n">
-        <v>560482.5847201503</v>
+        <v>669688.2453984777</v>
       </c>
       <c r="AE2" t="n">
-        <v>766876.9991606222</v>
+        <v>916297.0019144344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378585852591635e-06</v>
+        <v>2.246648461391871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.80671296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>693687.3346793599</v>
+        <v>828846.9020826393</v>
       </c>
     </row>
     <row r="3">
@@ -51890,28 +51890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.3373270615326</v>
+        <v>620.3365724352668</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.2119983145576</v>
+        <v>848.7718657240201</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.5258005807067</v>
+        <v>767.7662701181146</v>
       </c>
       <c r="AD3" t="n">
-        <v>518337.3270615326</v>
+        <v>620336.5724352668</v>
       </c>
       <c r="AE3" t="n">
-        <v>709211.9983145576</v>
+        <v>848771.8657240202</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>2.335054990478496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.75347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>641525.8005807067</v>
+        <v>767766.2701181145</v>
       </c>
     </row>
     <row r="4">
@@ -51996,28 +51996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.178648682779</v>
+        <v>625.1778940565132</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.8361081407829</v>
+        <v>855.3959755502455</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.5177146621137</v>
+        <v>773.7581841995213</v>
       </c>
       <c r="AD4" t="n">
-        <v>523178.6486827791</v>
+        <v>625177.8940565132</v>
       </c>
       <c r="AE4" t="n">
-        <v>715836.1081407829</v>
+        <v>855395.9755502455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>2.335054990478496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.75347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>647517.7146621137</v>
+        <v>773758.1841995213</v>
       </c>
     </row>
   </sheetData>
@@ -52293,28 +52293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1783.527393884198</v>
+        <v>1957.5978205987</v>
       </c>
       <c r="AB2" t="n">
-        <v>2440.300863987763</v>
+        <v>2678.471701263783</v>
       </c>
       <c r="AC2" t="n">
-        <v>2207.401974512544</v>
+        <v>2422.84212135381</v>
       </c>
       <c r="AD2" t="n">
-        <v>1783527.393884198</v>
+        <v>1957597.8205987</v>
       </c>
       <c r="AE2" t="n">
-        <v>2440300.863987763</v>
+        <v>2678471.701263783</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036985540159322e-07</v>
+        <v>1.187368816523335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.88425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2207401.974512544</v>
+        <v>2422842.12135381</v>
       </c>
     </row>
     <row r="3">
@@ -52399,28 +52399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1231.786042632608</v>
+        <v>1364.370580659555</v>
       </c>
       <c r="AB3" t="n">
-        <v>1685.38400609483</v>
+        <v>1866.792020240299</v>
       </c>
       <c r="AC3" t="n">
-        <v>1524.533322004447</v>
+        <v>1688.62800988762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1231786.042632608</v>
+        <v>1364370.580659555</v>
       </c>
       <c r="AE3" t="n">
-        <v>1685384.00609483</v>
+        <v>1866792.020240299</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027542089530329e-06</v>
+        <v>1.51807095916382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1524533.322004447</v>
+        <v>1688628.00988762</v>
       </c>
     </row>
     <row r="4">
@@ -52505,28 +52505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1087.524337446381</v>
+        <v>1211.896931180127</v>
       </c>
       <c r="AB4" t="n">
-        <v>1487.998776681776</v>
+        <v>1658.170846359875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1345.986261854666</v>
+        <v>1499.917348040687</v>
       </c>
       <c r="AD4" t="n">
-        <v>1087524.33744638</v>
+        <v>1211896.931180127</v>
       </c>
       <c r="AE4" t="n">
-        <v>1487998.776681776</v>
+        <v>1658170.846359875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.110576353261109e-06</v>
+        <v>1.640744186537759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1345986.261854666</v>
+        <v>1499917.348040687</v>
       </c>
     </row>
     <row r="5">
@@ -52611,28 +52611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1023.416217002816</v>
+        <v>1147.70346988199</v>
       </c>
       <c r="AB5" t="n">
-        <v>1400.283218040224</v>
+        <v>1570.338520596126</v>
       </c>
       <c r="AC5" t="n">
-        <v>1266.642153020305</v>
+        <v>1420.467616174387</v>
       </c>
       <c r="AD5" t="n">
-        <v>1023416.217002816</v>
+        <v>1147703.46988199</v>
       </c>
       <c r="AE5" t="n">
-        <v>1400283.218040224</v>
+        <v>1570338.520596126</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153395223083585e-06</v>
+        <v>1.704003962895367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.79513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1266642.153020305</v>
+        <v>1420467.616174387</v>
       </c>
     </row>
     <row r="6">
@@ -52717,28 +52717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.0261588447875</v>
+        <v>1103.016305593292</v>
       </c>
       <c r="AB6" t="n">
-        <v>1350.492735052349</v>
+        <v>1509.195570957779</v>
       </c>
       <c r="AC6" t="n">
-        <v>1221.60360384741</v>
+        <v>1365.160063834855</v>
       </c>
       <c r="AD6" t="n">
-        <v>987026.1588447875</v>
+        <v>1103016.305593292</v>
       </c>
       <c r="AE6" t="n">
-        <v>1350492.735052349</v>
+        <v>1509195.570957779</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.180704023630132e-06</v>
+        <v>1.744349460624088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.15277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1221603.60384741</v>
+        <v>1365160.063834855</v>
       </c>
     </row>
     <row r="7">
@@ -52823,28 +52823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>955.094551472617</v>
+        <v>1071.169949567142</v>
       </c>
       <c r="AB7" t="n">
-        <v>1306.802501122651</v>
+        <v>1465.62198168073</v>
       </c>
       <c r="AC7" t="n">
-        <v>1182.083104524334</v>
+        <v>1325.745076762491</v>
       </c>
       <c r="AD7" t="n">
-        <v>955094.551472617</v>
+        <v>1071169.949567142</v>
       </c>
       <c r="AE7" t="n">
-        <v>1306802.501122651</v>
+        <v>1465621.98168073</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.197654313624541e-06</v>
+        <v>1.769391493697087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.76504629629629</v>
       </c>
       <c r="AH7" t="n">
-        <v>1182083.104524334</v>
+        <v>1325745.076762491</v>
       </c>
     </row>
     <row r="8">
@@ -52929,28 +52929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>933.4876306351574</v>
+        <v>1049.39243652909</v>
       </c>
       <c r="AB8" t="n">
-        <v>1277.238958802767</v>
+        <v>1435.825027585999</v>
       </c>
       <c r="AC8" t="n">
-        <v>1155.341065190767</v>
+        <v>1298.791902146273</v>
       </c>
       <c r="AD8" t="n">
-        <v>933487.6306351575</v>
+        <v>1049392.43652909</v>
       </c>
       <c r="AE8" t="n">
-        <v>1277238.958802767</v>
+        <v>1435825.027585999</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211724162181992e-06</v>
+        <v>1.790178017881864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.45254629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>1155341.065190767</v>
+        <v>1298791.902146273</v>
       </c>
     </row>
     <row r="9">
@@ -53035,28 +53035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>917.9801343790426</v>
+        <v>1025.758426342898</v>
       </c>
       <c r="AB9" t="n">
-        <v>1256.0209182827</v>
+        <v>1403.487932190308</v>
       </c>
       <c r="AC9" t="n">
-        <v>1136.148044678229</v>
+        <v>1269.541013749749</v>
       </c>
       <c r="AD9" t="n">
-        <v>917980.1343790427</v>
+        <v>1025758.426342898</v>
       </c>
       <c r="AE9" t="n">
-        <v>1256020.9182827</v>
+        <v>1403487.932190308</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220919417538435e-06</v>
+        <v>1.803762911640419e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.25578703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1136148.044678229</v>
+        <v>1269541.013749749</v>
       </c>
     </row>
     <row r="10">
@@ -53141,28 +53141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>903.8755918747941</v>
+        <v>1011.653883838649</v>
       </c>
       <c r="AB10" t="n">
-        <v>1236.722460979888</v>
+        <v>1384.189474887496</v>
       </c>
       <c r="AC10" t="n">
-        <v>1118.691405054842</v>
+        <v>1252.084374126362</v>
       </c>
       <c r="AD10" t="n">
-        <v>903875.5918747941</v>
+        <v>1011653.883838649</v>
       </c>
       <c r="AE10" t="n">
-        <v>1236722.460979888</v>
+        <v>1384189.474887496</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227677376294376e-06</v>
+        <v>1.813746990185862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1118691.405054842</v>
+        <v>1252084.374126362</v>
       </c>
     </row>
     <row r="11">
@@ -53247,28 +53247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>881.4632201236559</v>
+        <v>997.4532773636093</v>
       </c>
       <c r="AB11" t="n">
-        <v>1206.056865185923</v>
+        <v>1364.759578621804</v>
       </c>
       <c r="AC11" t="n">
-        <v>1090.952490684019</v>
+        <v>1234.508839890237</v>
       </c>
       <c r="AD11" t="n">
-        <v>881463.2201236559</v>
+        <v>997453.2773636093</v>
       </c>
       <c r="AE11" t="n">
-        <v>1206056.865185923</v>
+        <v>1364759.578621804</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.235155445409556e-06</v>
+        <v>1.824794945953362e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.95486111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1090952.490684019</v>
+        <v>1234508.839890237</v>
       </c>
     </row>
     <row r="12">
@@ -53353,28 +53353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>868.0183688584268</v>
+        <v>984.0084260983805</v>
       </c>
       <c r="AB12" t="n">
-        <v>1187.66102653986</v>
+        <v>1346.363739975742</v>
       </c>
       <c r="AC12" t="n">
-        <v>1074.312325059615</v>
+        <v>1217.868674265833</v>
       </c>
       <c r="AD12" t="n">
-        <v>868018.3688584268</v>
+        <v>984008.4260983805</v>
       </c>
       <c r="AE12" t="n">
-        <v>1187661.02653986</v>
+        <v>1346363.739975742</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239642286878665e-06</v>
+        <v>1.831423719413862e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.86226851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>1074312.325059616</v>
+        <v>1217868.674265833</v>
       </c>
     </row>
     <row r="13">
@@ -53459,28 +53459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>855.5356344987089</v>
+        <v>971.5256917386625</v>
       </c>
       <c r="AB13" t="n">
-        <v>1170.581598689521</v>
+        <v>1329.284312125402</v>
       </c>
       <c r="AC13" t="n">
-        <v>1058.862933832184</v>
+        <v>1202.419283038403</v>
       </c>
       <c r="AD13" t="n">
-        <v>855535.6344987089</v>
+        <v>971525.6917386625</v>
       </c>
       <c r="AE13" t="n">
-        <v>1170581.598689521</v>
+        <v>1329284.312125403</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.244406093870557e-06</v>
+        <v>1.838461676421306e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.75810185185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>1058862.933832184</v>
+        <v>1202419.283038403</v>
       </c>
     </row>
     <row r="14">
@@ -53565,28 +53565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>843.3385707214036</v>
+        <v>951.2021140312789</v>
       </c>
       <c r="AB14" t="n">
-        <v>1153.893037932935</v>
+        <v>1301.476696493192</v>
       </c>
       <c r="AC14" t="n">
-        <v>1043.767105891665</v>
+        <v>1177.265587213897</v>
       </c>
       <c r="AD14" t="n">
-        <v>843338.5707214036</v>
+        <v>951202.114031279</v>
       </c>
       <c r="AE14" t="n">
-        <v>1153893.037932935</v>
+        <v>1301476.696493192</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.247785073248528e-06</v>
+        <v>1.843453715694028e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.68865740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>1043767.105891665</v>
+        <v>1177265.587213897</v>
       </c>
     </row>
     <row r="15">
@@ -53671,28 +53671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>834.2907187134293</v>
+        <v>942.1542620233048</v>
       </c>
       <c r="AB15" t="n">
-        <v>1141.513367652565</v>
+        <v>1289.097026212822</v>
       </c>
       <c r="AC15" t="n">
-        <v>1032.568933967878</v>
+        <v>1166.067415290109</v>
       </c>
       <c r="AD15" t="n">
-        <v>834290.7187134293</v>
+        <v>942154.2620233048</v>
       </c>
       <c r="AE15" t="n">
-        <v>1141513.367652565</v>
+        <v>1289097.026212822</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250277762953588e-06</v>
+        <v>1.847136367616528e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>1032568.933967878</v>
+        <v>1166067.415290109</v>
       </c>
     </row>
     <row r="16">
@@ -53777,28 +53777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>832.139462325774</v>
+        <v>940.0030056356496</v>
       </c>
       <c r="AB16" t="n">
-        <v>1138.569923756242</v>
+        <v>1286.153582316499</v>
       </c>
       <c r="AC16" t="n">
-        <v>1029.90640822587</v>
+        <v>1163.404889548101</v>
       </c>
       <c r="AD16" t="n">
-        <v>832139.462325774</v>
+        <v>940003.0056356497</v>
       </c>
       <c r="AE16" t="n">
-        <v>1138569.923756242</v>
+        <v>1286153.582316499</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.252327307822193e-06</v>
+        <v>1.850164325863917e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.59606481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>1029906.40822587</v>
+        <v>1163404.889548101</v>
       </c>
     </row>
     <row r="17">
@@ -53883,28 +53883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>835.367085251997</v>
+        <v>943.2306285618725</v>
       </c>
       <c r="AB17" t="n">
-        <v>1142.986099836574</v>
+        <v>1290.569758396831</v>
       </c>
       <c r="AC17" t="n">
-        <v>1033.901110659237</v>
+        <v>1167.399591981469</v>
       </c>
       <c r="AD17" t="n">
-        <v>835367.085251997</v>
+        <v>943230.6285618725</v>
       </c>
       <c r="AE17" t="n">
-        <v>1142986.099836574</v>
+        <v>1290569.758396831</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.25238270092675e-06</v>
+        <v>1.850246162573305e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.59606481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>1033901.110659237</v>
+        <v>1167399.591981469</v>
       </c>
     </row>
   </sheetData>
@@ -54180,28 +54180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2386.691389452953</v>
+        <v>2582.687402588614</v>
       </c>
       <c r="AB2" t="n">
-        <v>3265.576452442585</v>
+        <v>3533.746844348655</v>
       </c>
       <c r="AC2" t="n">
-        <v>2953.914419086678</v>
+        <v>3196.491005168732</v>
       </c>
       <c r="AD2" t="n">
-        <v>2386691.389452953</v>
+        <v>2582687.402588614</v>
       </c>
       <c r="AE2" t="n">
-        <v>3265576.452442585</v>
+        <v>3533746.844348655</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.791887752073756e-07</v>
+        <v>9.862968951190349e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.48032407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2953914.419086678</v>
+        <v>3196491.005168732</v>
       </c>
     </row>
     <row r="3">
@@ -54286,28 +54286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.534368029942</v>
+        <v>1642.356484121363</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.99258889214</v>
+        <v>2247.144597229264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1853.439611987434</v>
+        <v>2032.680270756953</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497534.368029942</v>
+        <v>1642356.484121363</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048992.58889214</v>
+        <v>2247144.597229264</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.264916355921423e-07</v>
+        <v>1.345422446446172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.33912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1853439.611987434</v>
+        <v>2032680.270756953</v>
       </c>
     </row>
     <row r="4">
@@ -54392,28 +54392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1299.080395948957</v>
+        <v>1426.929887213535</v>
       </c>
       <c r="AB4" t="n">
-        <v>1777.459109119598</v>
+        <v>1952.388423389276</v>
       </c>
       <c r="AC4" t="n">
-        <v>1607.82090642475</v>
+        <v>1766.055212455365</v>
       </c>
       <c r="AD4" t="n">
-        <v>1299080.395948957</v>
+        <v>1426929.887213536</v>
       </c>
       <c r="AE4" t="n">
-        <v>1777459.109119598</v>
+        <v>1952388.423389276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020598033791655e-06</v>
+        <v>1.482080842083932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.26620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1607820.90642475</v>
+        <v>1766055.212455365</v>
       </c>
     </row>
     <row r="5">
@@ -54498,28 +54498,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1203.876591982701</v>
+        <v>1331.72599373873</v>
       </c>
       <c r="AB5" t="n">
-        <v>1647.197064437564</v>
+        <v>1822.126256237693</v>
       </c>
       <c r="AC5" t="n">
-        <v>1489.990888463242</v>
+        <v>1648.22508371263</v>
       </c>
       <c r="AD5" t="n">
-        <v>1203876.591982701</v>
+        <v>1331725.99373873</v>
       </c>
       <c r="AE5" t="n">
-        <v>1647197.064437564</v>
+        <v>1822126.256237693</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070560364316184e-06</v>
+        <v>1.554634590420258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1489990.888463242</v>
+        <v>1648225.08371263</v>
       </c>
     </row>
     <row r="6">
@@ -54604,28 +54604,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1146.714621037263</v>
+        <v>1274.478681938719</v>
       </c>
       <c r="AB6" t="n">
-        <v>1568.985533981837</v>
+        <v>1743.797958659768</v>
       </c>
       <c r="AC6" t="n">
-        <v>1419.243756703637</v>
+        <v>1577.372328921086</v>
       </c>
       <c r="AD6" t="n">
-        <v>1146714.621037262</v>
+        <v>1274478.681938719</v>
       </c>
       <c r="AE6" t="n">
-        <v>1568985.533981837</v>
+        <v>1743797.958659768</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.103228041966838e-06</v>
+        <v>1.602073579717087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.99768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1419243.756703637</v>
+        <v>1577372.328921086</v>
       </c>
     </row>
     <row r="7">
@@ -54710,28 +54710,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1115.531900669156</v>
+        <v>1234.767068238457</v>
       </c>
       <c r="AB7" t="n">
-        <v>1526.319960289661</v>
+        <v>1689.46277684232</v>
       </c>
       <c r="AC7" t="n">
-        <v>1380.650125483134</v>
+        <v>1528.222820596388</v>
       </c>
       <c r="AD7" t="n">
-        <v>1115531.900669156</v>
+        <v>1234767.068238457</v>
       </c>
       <c r="AE7" t="n">
-        <v>1526319.960289661</v>
+        <v>1689462.77684232</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.124739600942676e-06</v>
+        <v>1.633311999139672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.46527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1380650.125483134</v>
+        <v>1528222.820596388</v>
       </c>
     </row>
     <row r="8">
@@ -54816,28 +54816,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1092.150351555379</v>
+        <v>1211.385519124679</v>
       </c>
       <c r="AB8" t="n">
-        <v>1494.328293271046</v>
+        <v>1657.471109823704</v>
       </c>
       <c r="AC8" t="n">
-        <v>1351.711698264188</v>
+        <v>1499.284393377442</v>
       </c>
       <c r="AD8" t="n">
-        <v>1092150.351555379</v>
+        <v>1211385.519124679</v>
       </c>
       <c r="AE8" t="n">
-        <v>1494328.293271046</v>
+        <v>1657471.109823704</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140379518510718e-06</v>
+        <v>1.656023802838971e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.08912037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1351711.698264189</v>
+        <v>1499284.393377442</v>
       </c>
     </row>
     <row r="9">
@@ -54922,28 +54922,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1066.086011325993</v>
+        <v>1185.406430241315</v>
       </c>
       <c r="AB9" t="n">
-        <v>1458.665913091664</v>
+        <v>1621.925374296972</v>
       </c>
       <c r="AC9" t="n">
-        <v>1319.452885596662</v>
+        <v>1467.131092960628</v>
       </c>
       <c r="AD9" t="n">
-        <v>1066086.011325993</v>
+        <v>1185406.430241315</v>
       </c>
       <c r="AE9" t="n">
-        <v>1458665.913091664</v>
+        <v>1621925.374296972</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.151642394302038e-06</v>
+        <v>1.672379402090002e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1319452.885596662</v>
+        <v>1467131.092960628</v>
       </c>
     </row>
     <row r="10">
@@ -55028,28 +55028,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1049.560301808611</v>
+        <v>1168.880720723932</v>
       </c>
       <c r="AB10" t="n">
-        <v>1436.054708267132</v>
+        <v>1599.314169472439</v>
       </c>
       <c r="AC10" t="n">
-        <v>1298.999662425558</v>
+        <v>1446.677869789524</v>
       </c>
       <c r="AD10" t="n">
-        <v>1049560.301808611</v>
+        <v>1168880.720723932</v>
       </c>
       <c r="AE10" t="n">
-        <v>1436054.708267132</v>
+        <v>1599314.169472439</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.161464049020535e-06</v>
+        <v>1.686642104754407e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.59722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1298999.662425558</v>
+        <v>1446677.869789524</v>
       </c>
     </row>
     <row r="11">
@@ -55134,28 +55134,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1035.127147610428</v>
+        <v>1154.276974325157</v>
       </c>
       <c r="AB11" t="n">
-        <v>1416.306629947355</v>
+        <v>1579.332679377815</v>
       </c>
       <c r="AC11" t="n">
-        <v>1281.136312984018</v>
+        <v>1428.603385065333</v>
       </c>
       <c r="AD11" t="n">
-        <v>1035127.147610428</v>
+        <v>1154276.974325157</v>
       </c>
       <c r="AE11" t="n">
-        <v>1416306.629947355</v>
+        <v>1579332.679377815</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.167762718894354e-06</v>
+        <v>1.695788837984842e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.45254629629629</v>
       </c>
       <c r="AH11" t="n">
-        <v>1281136.312984018</v>
+        <v>1428603.385065333</v>
       </c>
     </row>
     <row r="12">
@@ -55240,28 +55240,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1023.479160994955</v>
+        <v>1134.270686578121</v>
       </c>
       <c r="AB12" t="n">
-        <v>1400.369340787163</v>
+        <v>1551.959193867197</v>
       </c>
       <c r="AC12" t="n">
-        <v>1266.720056333149</v>
+        <v>1403.84238659292</v>
       </c>
       <c r="AD12" t="n">
-        <v>1023479.160994955</v>
+        <v>1134270.686578121</v>
       </c>
       <c r="AE12" t="n">
-        <v>1400369.340787163</v>
+        <v>1551959.193867197</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.175022202816721e-06</v>
+        <v>1.706330835606359e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.29050925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1266720.056333149</v>
+        <v>1403842.38659292</v>
       </c>
     </row>
     <row r="13">
@@ -55346,28 +55346,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1014.730423563853</v>
+        <v>1125.521949147019</v>
       </c>
       <c r="AB13" t="n">
-        <v>1388.398932266873</v>
+        <v>1539.988785346907</v>
       </c>
       <c r="AC13" t="n">
-        <v>1255.892086801462</v>
+        <v>1393.014417061233</v>
       </c>
       <c r="AD13" t="n">
-        <v>1014730.423563853</v>
+        <v>1125521.949147019</v>
       </c>
       <c r="AE13" t="n">
-        <v>1388398.932266873</v>
+        <v>1539988.785346907</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.179399244593443e-06</v>
+        <v>1.712687040054627e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.19212962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1255892.086801462</v>
+        <v>1393014.417061233</v>
       </c>
     </row>
     <row r="14">
@@ -55452,28 +55452,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1003.566968895909</v>
+        <v>1114.358494479075</v>
       </c>
       <c r="AB14" t="n">
-        <v>1373.124601093331</v>
+        <v>1524.714454173365</v>
       </c>
       <c r="AC14" t="n">
-        <v>1242.075516357464</v>
+        <v>1379.197846617235</v>
       </c>
       <c r="AD14" t="n">
-        <v>1003566.968895909</v>
+        <v>1114358.494479075</v>
       </c>
       <c r="AE14" t="n">
-        <v>1373124.601093331</v>
+        <v>1524714.454173365</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.184310071952691e-06</v>
+        <v>1.71981839138683e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.08217592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>1242075.516357464</v>
+        <v>1379197.846617235</v>
       </c>
     </row>
     <row r="15">
@@ -55558,28 +55558,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>992.0434902078904</v>
+        <v>1102.835015791056</v>
       </c>
       <c r="AB15" t="n">
-        <v>1357.357669172384</v>
+        <v>1508.947522252418</v>
       </c>
       <c r="AC15" t="n">
-        <v>1227.813358290025</v>
+        <v>1364.935688549795</v>
       </c>
       <c r="AD15" t="n">
-        <v>992043.4902078904</v>
+        <v>1102835.015791056</v>
       </c>
       <c r="AE15" t="n">
-        <v>1357357.669172384</v>
+        <v>1508947.522252418</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.187993192472127e-06</v>
+        <v>1.725166904885982e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.00115740740741</v>
       </c>
       <c r="AH15" t="n">
-        <v>1227813.358290025</v>
+        <v>1364935.688549795</v>
       </c>
     </row>
     <row r="16">
@@ -55664,28 +55664,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>975.7353236629776</v>
+        <v>1094.970401723727</v>
       </c>
       <c r="AB16" t="n">
-        <v>1335.044116240104</v>
+        <v>1498.186810323213</v>
       </c>
       <c r="AC16" t="n">
-        <v>1207.629379532333</v>
+        <v>1355.20196386436</v>
       </c>
       <c r="AD16" t="n">
-        <v>975735.3236629777</v>
+        <v>1094970.401723727</v>
       </c>
       <c r="AE16" t="n">
-        <v>1335044.116240104</v>
+        <v>1498186.810323213</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191729691549817e-06</v>
+        <v>1.730592933073528e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.92013888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1207629.379532333</v>
+        <v>1355201.96386436</v>
       </c>
     </row>
     <row r="17">
@@ -55770,28 +55770,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>966.3907230510814</v>
+        <v>1085.625801111831</v>
       </c>
       <c r="AB17" t="n">
-        <v>1322.258421428224</v>
+        <v>1485.401115511334</v>
       </c>
       <c r="AC17" t="n">
-        <v>1196.063933488464</v>
+        <v>1343.636517820491</v>
       </c>
       <c r="AD17" t="n">
-        <v>966390.7230510814</v>
+        <v>1085625.801111831</v>
       </c>
       <c r="AE17" t="n">
-        <v>1322258.421428224</v>
+        <v>1485401.115511334</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.195092540719737e-06</v>
+        <v>1.735476358442319e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH17" t="n">
-        <v>1196063.933488464</v>
+        <v>1343636.517820491</v>
       </c>
     </row>
     <row r="18">
@@ -55876,28 +55876,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>958.2497288651095</v>
+        <v>1077.484806925859</v>
       </c>
       <c r="AB18" t="n">
-        <v>1311.119554027661</v>
+        <v>1474.262248110771</v>
       </c>
       <c r="AC18" t="n">
-        <v>1185.988143959112</v>
+        <v>1333.560728291139</v>
       </c>
       <c r="AD18" t="n">
-        <v>958249.7288651095</v>
+        <v>1077484.806925859</v>
       </c>
       <c r="AE18" t="n">
-        <v>1311119.554027661</v>
+        <v>1474262.248110771</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.196160111884791e-06</v>
+        <v>1.737026652210189e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.82175925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>1185988.143959112</v>
+        <v>1333560.728291139</v>
       </c>
     </row>
     <row r="19">
@@ -55982,28 +55982,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>945.8427642547309</v>
+        <v>1065.077842315481</v>
       </c>
       <c r="AB19" t="n">
-        <v>1294.143797691093</v>
+        <v>1457.286491774203</v>
       </c>
       <c r="AC19" t="n">
-        <v>1170.632529981683</v>
+        <v>1318.20511431371</v>
       </c>
       <c r="AD19" t="n">
-        <v>945842.7642547309</v>
+        <v>1065077.842315481</v>
       </c>
       <c r="AE19" t="n">
-        <v>1294143.797691093</v>
+        <v>1457286.491774203</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.200110125195491e-06</v>
+        <v>1.742762739151309e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.74074074074074</v>
       </c>
       <c r="AH19" t="n">
-        <v>1170632.529981683</v>
+        <v>1318205.11431371</v>
       </c>
     </row>
     <row r="20">
@@ -56088,28 +56088,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>939.1718822747154</v>
+        <v>1050.048659203902</v>
       </c>
       <c r="AB20" t="n">
-        <v>1285.016402667494</v>
+        <v>1436.722900400177</v>
       </c>
       <c r="AC20" t="n">
-        <v>1162.376240728756</v>
+        <v>1299.604083239239</v>
       </c>
       <c r="AD20" t="n">
-        <v>939171.8822747153</v>
+        <v>1050048.659203902</v>
       </c>
       <c r="AE20" t="n">
-        <v>1285016.402667494</v>
+        <v>1436722.900400177</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201658103384819e-06</v>
+        <v>1.745010665114721e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.70601851851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>1162376.240728756</v>
+        <v>1299604.083239239</v>
       </c>
     </row>
     <row r="21">
@@ -56194,28 +56194,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>929.0478125842748</v>
+        <v>1039.924589513461</v>
       </c>
       <c r="AB21" t="n">
-        <v>1271.164203874601</v>
+        <v>1422.870701607284</v>
       </c>
       <c r="AC21" t="n">
-        <v>1149.846076346973</v>
+        <v>1287.073918857456</v>
       </c>
       <c r="AD21" t="n">
-        <v>929047.8125842748</v>
+        <v>1039924.589513461</v>
       </c>
       <c r="AE21" t="n">
-        <v>1271164.203874601</v>
+        <v>1422870.701607284</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.204006759947938e-06</v>
+        <v>1.748421311404036e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.65393518518519</v>
       </c>
       <c r="AH21" t="n">
-        <v>1149846.076346973</v>
+        <v>1287073.918857456</v>
       </c>
     </row>
     <row r="22">
@@ -56300,28 +56300,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>927.5051704387039</v>
+        <v>1038.38194736789</v>
       </c>
       <c r="AB22" t="n">
-        <v>1269.053492834462</v>
+        <v>1420.759990567145</v>
       </c>
       <c r="AC22" t="n">
-        <v>1147.936808606104</v>
+        <v>1285.164651116587</v>
       </c>
       <c r="AD22" t="n">
-        <v>927505.1704387038</v>
+        <v>1038381.94736789</v>
       </c>
       <c r="AE22" t="n">
-        <v>1269053.492834462</v>
+        <v>1420759.990567145</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.203099324457642e-06</v>
+        <v>1.747103561701346e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1147936.808606104</v>
+        <v>1285164.651116587</v>
       </c>
     </row>
     <row r="23">
@@ -56406,28 +56406,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>928.1543959605259</v>
+        <v>1039.031172889712</v>
       </c>
       <c r="AB23" t="n">
-        <v>1269.941791835228</v>
+        <v>1421.648289567911</v>
       </c>
       <c r="AC23" t="n">
-        <v>1148.740329596972</v>
+        <v>1285.968172107455</v>
       </c>
       <c r="AD23" t="n">
-        <v>928154.395960526</v>
+        <v>1039031.172889712</v>
       </c>
       <c r="AE23" t="n">
-        <v>1269941.791835228</v>
+        <v>1421648.289567911</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>1.749584031729938e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>1148740.329596972</v>
+        <v>1285968.172107455</v>
       </c>
     </row>
     <row r="24">
@@ -56512,28 +56512,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>931.3251829407362</v>
+        <v>1042.201959869922</v>
       </c>
       <c r="AB24" t="n">
-        <v>1274.2802024668</v>
+        <v>1425.986700199484</v>
       </c>
       <c r="AC24" t="n">
-        <v>1152.664688406865</v>
+        <v>1289.892530917348</v>
       </c>
       <c r="AD24" t="n">
-        <v>931325.1829407362</v>
+        <v>1042201.959869922</v>
       </c>
       <c r="AE24" t="n">
-        <v>1274280.2024668</v>
+        <v>1425986.700199484</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.204914195438234e-06</v>
+        <v>1.749739061106725e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH24" t="n">
-        <v>1152664.688406865</v>
+        <v>1289892.530917348</v>
       </c>
     </row>
     <row r="25">
@@ -56618,28 +56618,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>934.570304711537</v>
+        <v>1045.447081640723</v>
       </c>
       <c r="AB25" t="n">
-        <v>1278.720321238278</v>
+        <v>1430.426818970961</v>
       </c>
       <c r="AC25" t="n">
-        <v>1156.681048474539</v>
+        <v>1293.908890985022</v>
       </c>
       <c r="AD25" t="n">
-        <v>934570.304711537</v>
+        <v>1045447.081640723</v>
       </c>
       <c r="AE25" t="n">
-        <v>1278720.321238278</v>
+        <v>1430426.818970961</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>1.749584031729938e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH25" t="n">
-        <v>1156681.048474539</v>
+        <v>1293908.890985022</v>
       </c>
     </row>
     <row r="26">
@@ -56724,28 +56724,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>937.7664090836818</v>
+        <v>1048.643186012868</v>
       </c>
       <c r="AB26" t="n">
-        <v>1283.09337224242</v>
+        <v>1434.799869975104</v>
       </c>
       <c r="AC26" t="n">
-        <v>1160.636741628461</v>
+        <v>1297.864584138944</v>
       </c>
       <c r="AD26" t="n">
-        <v>937766.4090836818</v>
+        <v>1048643.186012868</v>
       </c>
       <c r="AE26" t="n">
-        <v>1283093.37224242</v>
+        <v>1434799.869975104</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>1.749584031729938e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1160636.741628461</v>
+        <v>1297864.584138944</v>
       </c>
     </row>
   </sheetData>
@@ -57021,28 +57021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.2875196577127</v>
+        <v>572.8517975024861</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.9951555492115</v>
+        <v>783.801101780569</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.1057933354186</v>
+        <v>708.9962246983862</v>
       </c>
       <c r="AD2" t="n">
-        <v>466287.5196577127</v>
+        <v>572851.797502486</v>
       </c>
       <c r="AE2" t="n">
-        <v>637995.1555492115</v>
+        <v>783801.1017805689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.429586361002403e-06</v>
+        <v>2.383035290405449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.76620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>577105.7933354187</v>
+        <v>708996.2246983862</v>
       </c>
     </row>
     <row r="3">
@@ -57127,28 +57127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.9490384325985</v>
+        <v>578.5133162773718</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.7414953055908</v>
+        <v>791.5474415369483</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.1128332975053</v>
+        <v>716.0032646604727</v>
       </c>
       <c r="AD3" t="n">
-        <v>471949.0384325985</v>
+        <v>578513.3162773718</v>
       </c>
       <c r="AE3" t="n">
-        <v>645741.4953055908</v>
+        <v>791547.4415369483</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429654949322751e-06</v>
+        <v>2.383149623049042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>584112.8332975053</v>
+        <v>716003.2646604727</v>
       </c>
     </row>
   </sheetData>
@@ -57424,28 +57424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.00073972606</v>
+        <v>1335.938684968909</v>
       </c>
       <c r="AB2" t="n">
-        <v>1643.26219650638</v>
+        <v>1827.890246229646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1486.431558804789</v>
+        <v>1653.438966589561</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201000.73972606</v>
+        <v>1335938.684968909</v>
       </c>
       <c r="AE2" t="n">
-        <v>1643262.19650638</v>
+        <v>1827890.246229646</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.983950428864878e-07</v>
+        <v>1.519464026863208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.07407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1486431.558804789</v>
+        <v>1653438.966589561</v>
       </c>
     </row>
     <row r="3">
@@ -57530,28 +57530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>914.4631003084174</v>
+        <v>1033.515874091084</v>
       </c>
       <c r="AB3" t="n">
-        <v>1251.208757106678</v>
+        <v>1414.102014433817</v>
       </c>
       <c r="AC3" t="n">
-        <v>1131.795149410936</v>
+        <v>1279.142102880895</v>
       </c>
       <c r="AD3" t="n">
-        <v>914463.1003084175</v>
+        <v>1033515.874091084</v>
       </c>
       <c r="AE3" t="n">
-        <v>1251208.757106678</v>
+        <v>1414102.014433817</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181636952365212e-06</v>
+        <v>1.798341102275834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.79050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1131795.149410936</v>
+        <v>1279142.102880895</v>
       </c>
     </row>
     <row r="4">
@@ -57636,28 +57636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>837.5870822589849</v>
+        <v>948.6120637198148</v>
       </c>
       <c r="AB4" t="n">
-        <v>1146.02359768089</v>
+        <v>1297.932875392091</v>
       </c>
       <c r="AC4" t="n">
-        <v>1036.648713972447</v>
+        <v>1174.059983424901</v>
       </c>
       <c r="AD4" t="n">
-        <v>837587.0822589849</v>
+        <v>948612.0637198149</v>
       </c>
       <c r="AE4" t="n">
-        <v>1146023.59768089</v>
+        <v>1297932.875392091</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245892135894326e-06</v>
+        <v>1.896131491568744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.30902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1036648.713972447</v>
+        <v>1174059.983424901</v>
       </c>
     </row>
     <row r="5">
@@ -57742,28 +57742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>791.6289819194701</v>
+        <v>902.7392147263208</v>
       </c>
       <c r="AB5" t="n">
-        <v>1083.141697268075</v>
+        <v>1235.167619631925</v>
       </c>
       <c r="AC5" t="n">
-        <v>979.7681738797294</v>
+        <v>1117.284955582895</v>
       </c>
       <c r="AD5" t="n">
-        <v>791628.9819194701</v>
+        <v>902739.2147263208</v>
       </c>
       <c r="AE5" t="n">
-        <v>1083141.697268075</v>
+        <v>1235167.619631925</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279518819314868e-06</v>
+        <v>1.947308163733011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.59143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>979768.1738797294</v>
+        <v>1117284.955582896</v>
       </c>
     </row>
     <row r="6">
@@ -57848,28 +57848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>764.1219078023134</v>
+        <v>867.2896891418993</v>
       </c>
       <c r="AB6" t="n">
-        <v>1045.505304934518</v>
+        <v>1186.664014804627</v>
       </c>
       <c r="AC6" t="n">
-        <v>945.7237460074781</v>
+        <v>1073.410466725078</v>
       </c>
       <c r="AD6" t="n">
-        <v>764121.9078023134</v>
+        <v>867289.6891418993</v>
       </c>
       <c r="AE6" t="n">
-        <v>1045505.304934518</v>
+        <v>1186664.014804627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>1.97835415191658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.16898148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>945723.7460074781</v>
+        <v>1073410.466725078</v>
       </c>
     </row>
     <row r="7">
@@ -57954,28 +57954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>732.0992836356179</v>
+        <v>843.124175587897</v>
       </c>
       <c r="AB7" t="n">
-        <v>1001.690537811173</v>
+        <v>1153.599693052825</v>
       </c>
       <c r="AC7" t="n">
-        <v>906.0905987639734</v>
+        <v>1043.501757435201</v>
       </c>
       <c r="AD7" t="n">
-        <v>732099.2836356179</v>
+        <v>843124.175587897</v>
       </c>
       <c r="AE7" t="n">
-        <v>1001690.537811173</v>
+        <v>1153599.693052825</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.313027926919255e-06</v>
+        <v>1.998305896484117e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.90856481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>906090.5987639733</v>
+        <v>1043501.757435201</v>
       </c>
     </row>
     <row r="8">
@@ -58060,28 +58060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>714.6942697171405</v>
+        <v>817.9473024027468</v>
       </c>
       <c r="AB8" t="n">
-        <v>977.8762299128904</v>
+        <v>1119.151584435649</v>
       </c>
       <c r="AC8" t="n">
-        <v>884.5490949879121</v>
+        <v>1012.341327956224</v>
       </c>
       <c r="AD8" t="n">
-        <v>714694.2697171405</v>
+        <v>817947.3024027467</v>
       </c>
       <c r="AE8" t="n">
-        <v>977876.2299128904</v>
+        <v>1119151.584435649</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322375204303636e-06</v>
+        <v>2.012531579830478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>884549.0949879121</v>
+        <v>1012341.327956224</v>
       </c>
     </row>
     <row r="9">
@@ -58166,28 +58166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>712.6268001079869</v>
+        <v>815.8798327935932</v>
       </c>
       <c r="AB9" t="n">
-        <v>975.0474267833246</v>
+        <v>1116.322781306083</v>
       </c>
       <c r="AC9" t="n">
-        <v>881.9902688587816</v>
+        <v>1009.782501827093</v>
       </c>
       <c r="AD9" t="n">
-        <v>712626.8001079869</v>
+        <v>815879.8327935932</v>
       </c>
       <c r="AE9" t="n">
-        <v>975047.4267833246</v>
+        <v>1116322.781306083</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.324138841545973e-06</v>
+        <v>2.015215671027905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>881990.2688587817</v>
+        <v>1009782.501827094</v>
       </c>
     </row>
     <row r="10">
@@ -58272,28 +58272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>715.8294471625993</v>
+        <v>819.0824798482056</v>
       </c>
       <c r="AB10" t="n">
-        <v>979.4294297742615</v>
+        <v>1120.70478429702</v>
       </c>
       <c r="AC10" t="n">
-        <v>885.9540596344436</v>
+        <v>1013.746292602755</v>
       </c>
       <c r="AD10" t="n">
-        <v>715829.4471625993</v>
+        <v>819082.4798482056</v>
       </c>
       <c r="AE10" t="n">
-        <v>979429.4297742615</v>
+        <v>1120704.78429702</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.323962477821739e-06</v>
+        <v>2.014947261908162e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>885954.0596344436</v>
+        <v>1013746.292602755</v>
       </c>
     </row>
   </sheetData>
@@ -58569,28 +58569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1535.743188771731</v>
+        <v>1690.730798478731</v>
       </c>
       <c r="AB2" t="n">
-        <v>2101.27158308526</v>
+        <v>2313.332468257147</v>
       </c>
       <c r="AC2" t="n">
-        <v>1900.729172348792</v>
+        <v>2092.551264269195</v>
       </c>
       <c r="AD2" t="n">
-        <v>1535743.188771731</v>
+        <v>1690730.798478731</v>
       </c>
       <c r="AE2" t="n">
-        <v>2101271.58308526</v>
+        <v>2313332.468257146</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.74981790296323e-07</v>
+        <v>1.306269671807329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.43634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1900729.172348792</v>
+        <v>2092551.264269195</v>
       </c>
     </row>
     <row r="3">
@@ -58675,28 +58675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1106.066839232693</v>
+        <v>1228.474905182141</v>
       </c>
       <c r="AB3" t="n">
-        <v>1513.369445663254</v>
+        <v>1680.853561758026</v>
       </c>
       <c r="AC3" t="n">
-        <v>1368.935589796509</v>
+        <v>1520.43525691663</v>
       </c>
       <c r="AD3" t="n">
-        <v>1106066.839232693</v>
+        <v>1228474.905182141</v>
       </c>
       <c r="AE3" t="n">
-        <v>1513369.445663254</v>
+        <v>1680853.561758026</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084006161314133e-06</v>
+        <v>1.618324390610904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.21412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1368935.589796509</v>
+        <v>1520435.25691663</v>
       </c>
     </row>
     <row r="4">
@@ -58781,28 +58781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>992.600463602821</v>
+        <v>1106.842308399237</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.11974474326</v>
+        <v>1514.430476788204</v>
       </c>
       <c r="AC4" t="n">
-        <v>1228.502702437996</v>
+        <v>1369.895357600061</v>
       </c>
       <c r="AD4" t="n">
-        <v>992600.463602821</v>
+        <v>1106842.308399237</v>
       </c>
       <c r="AE4" t="n">
-        <v>1358119.74474326</v>
+        <v>1514430.476788204</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160303169744137e-06</v>
+        <v>1.732229010417895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1228502.702437996</v>
+        <v>1369895.357600061</v>
       </c>
     </row>
     <row r="5">
@@ -58887,28 +58887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.2782284291952</v>
+        <v>1050.43473237104</v>
       </c>
       <c r="AB5" t="n">
-        <v>1281.057177817055</v>
+        <v>1437.251142739801</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.794878741236</v>
+        <v>1300.081910871362</v>
       </c>
       <c r="AD5" t="n">
-        <v>936278.2284291952</v>
+        <v>1050434.73237104</v>
       </c>
       <c r="AE5" t="n">
-        <v>1281057.177817055</v>
+        <v>1437251.142739801</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199527076896951e-06</v>
+        <v>1.790786800867632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.30324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158794.878741236</v>
+        <v>1300081.910871362</v>
       </c>
     </row>
     <row r="6">
@@ -58993,28 +58993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>897.9193117284406</v>
+        <v>1012.161067016306</v>
       </c>
       <c r="AB6" t="n">
-        <v>1228.572815711113</v>
+        <v>1384.883425286508</v>
       </c>
       <c r="AC6" t="n">
-        <v>1111.31955049242</v>
+        <v>1252.712094873258</v>
       </c>
       <c r="AD6" t="n">
-        <v>897919.3117284406</v>
+        <v>1012161.067016306</v>
       </c>
       <c r="AE6" t="n">
-        <v>1228572.815711113</v>
+        <v>1384883.425286508</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.223865143384268e-06</v>
+        <v>1.827121360598349e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.76504629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>1111319.55049242</v>
+        <v>1252712.094873258</v>
       </c>
     </row>
     <row r="7">
@@ -59099,28 +59099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.4512647817571</v>
+        <v>988.5224278690301</v>
       </c>
       <c r="AB7" t="n">
-        <v>1196.4627985415</v>
+        <v>1352.539996342048</v>
       </c>
       <c r="AC7" t="n">
-        <v>1082.274068294783</v>
+        <v>1223.45547739297</v>
       </c>
       <c r="AD7" t="n">
-        <v>874451.2647817571</v>
+        <v>988522.4278690302</v>
       </c>
       <c r="AE7" t="n">
-        <v>1196462.7985415</v>
+        <v>1352539.996342048</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.240279188224551e-06</v>
+        <v>1.851626063672553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1082274.068294783</v>
+        <v>1223455.47739297</v>
       </c>
     </row>
     <row r="8">
@@ -59205,28 +59205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.2825887073665</v>
+        <v>959.3582123507513</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.498882040441</v>
+        <v>1312.636230035557</v>
       </c>
       <c r="AC8" t="n">
-        <v>1056.074427333473</v>
+        <v>1187.360070537482</v>
       </c>
       <c r="AD8" t="n">
-        <v>853282.5887073665</v>
+        <v>959358.2123507513</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167498.882040441</v>
+        <v>1312636.230035557</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252731222241317e-06</v>
+        <v>1.870215838418501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1056074.427333473</v>
+        <v>1187360.070537482</v>
       </c>
     </row>
     <row r="9">
@@ -59311,28 +59311,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>828.0536102973823</v>
+        <v>942.2100247306756</v>
       </c>
       <c r="AB9" t="n">
-        <v>1132.979480755926</v>
+        <v>1289.173323209125</v>
       </c>
       <c r="AC9" t="n">
-        <v>1024.849509259269</v>
+        <v>1166.136430608168</v>
       </c>
       <c r="AD9" t="n">
-        <v>828053.6102973823</v>
+        <v>942210.0247306756</v>
       </c>
       <c r="AE9" t="n">
-        <v>1132979.480755927</v>
+        <v>1289173.323209125</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.261221245434567e-06</v>
+        <v>1.882890684836193e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.97222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1024849.509259269</v>
+        <v>1166136.430608168</v>
       </c>
     </row>
     <row r="10">
@@ -59417,28 +59417,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>814.2438704688592</v>
+        <v>928.4002849021526</v>
       </c>
       <c r="AB10" t="n">
-        <v>1114.084385479818</v>
+        <v>1270.278227933016</v>
       </c>
       <c r="AC10" t="n">
-        <v>1007.757735356879</v>
+        <v>1149.044656705779</v>
       </c>
       <c r="AD10" t="n">
-        <v>814243.8704688592</v>
+        <v>928400.2849021526</v>
       </c>
       <c r="AE10" t="n">
-        <v>1114084.385479818</v>
+        <v>1270278.227933016</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267334062133707e-06</v>
+        <v>1.892016574256932e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1007757.735356879</v>
+        <v>1149044.656705779</v>
       </c>
     </row>
     <row r="11">
@@ -59523,28 +59523,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>799.0832988075488</v>
+        <v>905.2441737969543</v>
       </c>
       <c r="AB11" t="n">
-        <v>1093.341022495596</v>
+        <v>1238.595015143361</v>
       </c>
       <c r="AC11" t="n">
-        <v>988.9940898223781</v>
+        <v>1120.3852452771</v>
       </c>
       <c r="AD11" t="n">
-        <v>799083.2988075488</v>
+        <v>905244.1737969543</v>
       </c>
       <c r="AE11" t="n">
-        <v>1093341.022495596</v>
+        <v>1238595.015143361</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.273729879605955e-06</v>
+        <v>1.901564958558259e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.71759259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>988994.0898223781</v>
+        <v>1120385.2452771</v>
       </c>
     </row>
     <row r="12">
@@ -59629,28 +59629,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>785.8466071794537</v>
+        <v>892.0074821688592</v>
       </c>
       <c r="AB12" t="n">
-        <v>1075.229997048415</v>
+        <v>1220.483989696181</v>
       </c>
       <c r="AC12" t="n">
-        <v>972.6115552248926</v>
+        <v>1104.002710679614</v>
       </c>
       <c r="AD12" t="n">
-        <v>785846.6071794537</v>
+        <v>892007.4821688591</v>
       </c>
       <c r="AE12" t="n">
-        <v>1075229.997048415</v>
+        <v>1220483.98969618</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27831449213031e-06</v>
+        <v>1.908409375623813e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH12" t="n">
-        <v>972611.5552248927</v>
+        <v>1104002.710679614</v>
       </c>
     </row>
     <row r="13">
@@ -59735,28 +59735,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>787.3266152992561</v>
+        <v>893.4874902886615</v>
       </c>
       <c r="AB13" t="n">
-        <v>1077.255009451279</v>
+        <v>1222.509002099044</v>
       </c>
       <c r="AC13" t="n">
-        <v>974.4433032861499</v>
+        <v>1105.834458740871</v>
       </c>
       <c r="AD13" t="n">
-        <v>787326.6152992561</v>
+        <v>893487.4902886616</v>
       </c>
       <c r="AE13" t="n">
-        <v>1077255.009451279</v>
+        <v>1222509.002099044</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277408889656363e-06</v>
+        <v>1.907057392005926e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>974443.3032861499</v>
+        <v>1105834.458740871</v>
       </c>
     </row>
     <row r="14">
@@ -59841,28 +59841,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>790.4515362376761</v>
+        <v>896.6124112270815</v>
       </c>
       <c r="AB14" t="n">
-        <v>1081.530664141007</v>
+        <v>1226.784656788773</v>
       </c>
       <c r="AC14" t="n">
-        <v>978.3108954932096</v>
+        <v>1109.702050947931</v>
       </c>
       <c r="AD14" t="n">
-        <v>790451.5362376762</v>
+        <v>896612.4112270814</v>
       </c>
       <c r="AE14" t="n">
-        <v>1081530.664141007</v>
+        <v>1226784.656788772</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.277239089192498e-06</v>
+        <v>1.906803895077572e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>978310.8954932096</v>
+        <v>1109702.050947931</v>
       </c>
     </row>
   </sheetData>
